--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>253.3363108573533</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>23.64778993923174</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>106.2883780521556</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>52.35139861435113</v>
+      </c>
+      <c r="F2">
         <v>74.66966262700831</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>89.6874892012284</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>7.449837035676821</v>
       </c>
-      <c r="H2" t="n">
-        <v>555.0794677126542</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>607.4308663270053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>238.7401128145787</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>30.1393401186287</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>130.5828644640769</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>20.01671123489896</v>
+      </c>
+      <c r="F3">
         <v>82.26318763992438</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>79.53418853693839</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>19.03847242450743</v>
       </c>
-      <c r="H3" t="n">
-        <v>580.2981659986544</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>600.3148772335534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>223.1372804240263</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23.64778993923174</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>65.29143223203846</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>18.47696421682982</v>
+      </c>
+      <c r="F4">
         <v>65.38868761122197</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>76.14975498217504</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>16.55519341261516</v>
       </c>
-      <c r="H4" t="n">
-        <v>470.1701386013087</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>488.6471028181385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>258.8727997701299</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>25.50251856191658</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>88.06751324321466</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>32.33468737945217</v>
+      </c>
+      <c r="F5">
         <v>78.88828763418391</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>62.61202076312169</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>14.07191440072288</v>
       </c>
-      <c r="H5" t="n">
-        <v>528.0150543732896</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>560.3497417527418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>240.7533815101337</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>26.429882873259</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>107.8067834529007</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F6">
         <v>84.3725001435122</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>64.30423754050337</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>12.41639505946137</v>
       </c>
-      <c r="H6" t="n">
-        <v>536.0831805797703</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>563.7986269050151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>258.2017102049448</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>27.35724718460142</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>124.5092428610966</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F7">
         <v>88.59112515068782</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>60.91980398574004</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>10.76087571819985</v>
       </c>
-      <c r="H7" t="n">
-        <v>570.3400051052705</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>598.0554514305152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>263.9059715090177</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>25.03883640624537</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>121.4724320596065</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>30.79494036138303</v>
+      </c>
+      <c r="F8">
         <v>82.68505014064196</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>52.4587200988317</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>5.794317694415305</v>
       </c>
-      <c r="H8" t="n">
-        <v>551.3553279087586</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>582.1502682701415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>295.1116362901222</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>23.18410778356053</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>106.2883780521556</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>49.27190457821283</v>
+      </c>
+      <c r="F9">
         <v>73.40407512485561</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>55.84315365359503</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>9.105356376938337</v>
       </c>
-      <c r="H9" t="n">
-        <v>562.9367072812272</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>612.2086118594401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>320.4452673758575</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>28.28461149594384</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>97.17794564768514</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>92.38482108414911</v>
+      </c>
+      <c r="F10">
         <v>70.45103761983269</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>42.3054194345417</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>4.966558023784547</v>
       </c>
-      <c r="H10" t="n">
-        <v>563.6308395976454</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>656.0156606817945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>340.5779543314088</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>17.619921915506</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>83.51229704097945</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>98.54380915642567</v>
+      </c>
+      <c r="F11">
         <v>39.23321256673317</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>8.461083886908337</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>5.794317694415305</v>
       </c>
-      <c r="H11" t="n">
-        <v>495.1987874359511</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>593.7425965923768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>248.1353667271692</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14.83782898147874</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>85.0307024417245</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>60.0501337046969</v>
+      </c>
+      <c r="F12">
         <v>35.01458755955756</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>18.61438455119834</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.655519341261516</v>
       </c>
-      <c r="H12" t="n">
-        <v>403.2883896023899</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>463.3385233070869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>216.426384772176</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>10.20100742476663</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>50.10737822458764</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>80.06684493959585</v>
+      </c>
+      <c r="F13">
         <v>21.93685003731317</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>30.45990199287002</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>4.138798353153791</v>
       </c>
-      <c r="H13" t="n">
-        <v>333.2703208048672</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>413.3371657444631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>171.4633839047782</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>8.809960957753002</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>51.62578362533273</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>50.811651596282</v>
+      </c>
+      <c r="F14">
         <v>14.76518752511464</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>23.69103488334335</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>4.138798353153791</v>
       </c>
-      <c r="H14" t="n">
-        <v>274.4941492494757</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>325.3058008457577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>121.1316665159001</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>12.51941820312269</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>33.40491881639178</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>29.25519334331387</v>
+      </c>
+      <c r="F15">
         <v>12.65587502152683</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>20.30660132858001</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>200.0184798855214</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>229.2736732288352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>74.49094173553964</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10.20100742476663</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>22.77608101117621</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>15.39747018069152</v>
+      </c>
+      <c r="F16">
         <v>9.702837516503903</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>18.61438455119834</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>135.7852522391847</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>151.1827224198763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>57.88147499720987</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>14.37414682580753</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>7.592027003725405</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>3.079494036138302</v>
+      </c>
+      <c r="F17">
         <v>5.484212509328294</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>21.99881810596169</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>107.3306794420328</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>110.4101734781711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>37.74878804165861</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>12.9831003587939</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>13.66564860670573</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F18">
         <v>10.12470001722147</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>13.53773421905334</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>88.05997124343305</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>94.21895931570965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>22.48150043369889</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>11.59205389178026</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>18.22086480894097</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>1.539747018069151</v>
+      </c>
+      <c r="F19">
         <v>4.640487507893171</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>28.76768521548835</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H19" t="n">
-        <v>86.5303515284324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>88.07009854650154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>27.17912738999419</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>8.809960957753002</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>22.77608101117621</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F20">
         <v>9.280975015786343</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>23.69103488334335</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H20" t="n">
-        <v>92.56493892868386</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>97.18417998289132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>46.6407247803604</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.173139401040896</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>31.88651341564669</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>10.77822912648406</v>
+      </c>
+      <c r="F21">
         <v>16.45263752798488</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>38.92098587977836</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>138.0740010048112</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>148.8522301312953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>93.7847667346096</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.709457245369685</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>47.0705674230975</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>44.6526635240054</v>
+      </c>
+      <c r="F22">
         <v>46.40487507893172</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>71.07310465003006</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>1.655519341261516</v>
       </c>
-      <c r="H22" t="n">
-        <v>263.6982904733001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>308.3509539973055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>178.1742795566286</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>8.346278802081791</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>80.47548623948926</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>129.3387495178087</v>
+      </c>
+      <c r="F23">
         <v>68.34172511624489</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>99.84078986551842</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>9.933116047569094</v>
       </c>
-      <c r="H23" t="n">
-        <v>445.111675627532</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>574.4504251453408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>256.3562139006859</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>12.51941820312269</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>85.0307024417245</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>140.1169786442927</v>
+      </c>
+      <c r="F24">
         <v>72.13848762270294</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>126.9162583036251</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>14.89967407135364</v>
       </c>
-      <c r="H24" t="n">
-        <v>567.8607545432147</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>707.9777331875075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>278.6699419430887</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>21.32937916087568</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>106.2883780521556</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>66.20912177697352</v>
+      </c>
+      <c r="F25">
         <v>73.40407512485561</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>86.30305564646505</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>6.622077365046064</v>
       </c>
-      <c r="H25" t="n">
-        <v>572.6169072924868</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>638.8260290694602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>261.2216132482777</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>22.72042562788932</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>103.2515672506655</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>53.8911456324203</v>
+      </c>
+      <c r="F26">
         <v>77.62270013203123</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>94.76413953337338</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>6.622077365046064</v>
       </c>
-      <c r="H26" t="n">
-        <v>566.2025231572831</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>620.0936687897034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>246.1220980316141</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>29.21197580728626</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>126.0276482618417</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>21.55645825296811</v>
+      </c>
+      <c r="F27">
         <v>85.21622514494734</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>82.91862209170168</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>17.38295308324591</v>
       </c>
-      <c r="H27" t="n">
-        <v>586.8795224206368</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>608.4359806736049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>249.4775458575393</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>26.89356502893021</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>98.69635104843024</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>21.55645825296811</v>
+      </c>
+      <c r="F28">
         <v>76.35711262987853</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>87.99527242384674</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>10.76087571819985</v>
       </c>
-      <c r="H28" t="n">
-        <v>550.1807227068249</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>571.737180959793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>260.3827512917963</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>28.74829365161506</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>83.51229704097945</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>23.09620527103728</v>
+      </c>
+      <c r="F29">
         <v>76.35711262987853</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>71.07310465003006</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>6.622077365046064</v>
       </c>
-      <c r="H29" t="n">
-        <v>526.6956366293454</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>549.7918419003827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>270.2813223782755</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>25.03883640624537</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>69.84664843427372</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>26.17569930717557</v>
+      </c>
+      <c r="F30">
         <v>94.91906266145122</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>79.53418853693839</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>9.933116047569094</v>
       </c>
-      <c r="H30" t="n">
-        <v>549.5531744647533</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>575.7288737719289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>242.9344225969852</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>25.03883640624537</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>92.62272944544991</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F31">
         <v>74.24780012629074</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>55.84315365359503</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>4.966558023784547</v>
       </c>
-      <c r="H31" t="n">
-        <v>495.6535002523508</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>523.3689465775955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>270.6168671608681</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>22.25674347221811</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>139.6932968685474</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F32">
         <v>85.21622514494734</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>52.4587200988317</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>11.58863538883061</v>
       </c>
-      <c r="H32" t="n">
-        <v>581.8304881342433</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>609.5459344594881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>271.9590462912382</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>23.18410778356053</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>118.4356212581163</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>40.03342246979793</v>
+      </c>
+      <c r="F33">
         <v>78.88828763418391</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>65.99645431788505</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>10.76087571819985</v>
       </c>
-      <c r="H33" t="n">
-        <v>569.2243930031838</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>609.2578154729817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>324.639577158264</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>19.93833269386205</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>103.2515672506655</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>81.60659195766502</v>
+      </c>
+      <c r="F34">
         <v>65.81055011193952</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>37.22876910239668</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>8.277596706307582</v>
       </c>
-      <c r="H34" t="n">
-        <v>559.1463930234353</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>640.7529849811003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>338.9002304184461</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>15.30151113714995</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>85.0307024417245</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>90.84507406607992</v>
+      </c>
+      <c r="F35">
         <v>51.04536258682487</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>23.69103488334335</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>6.622077365046064</v>
       </c>
-      <c r="H35" t="n">
-        <v>520.5909188325347</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>611.4359928986148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>255.0140347703158</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>12.51941820312269</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>86.54910784246957</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>95.46431512028735</v>
+      </c>
+      <c r="F36">
         <v>31.63968755381708</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>21.99881810596169</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>4.138798353153791</v>
       </c>
-      <c r="H36" t="n">
-        <v>411.8598648288406</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>507.3241799491279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>236.7268441190235</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>11.59205389178026</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>50.10737822458764</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>93.9245681022182</v>
+      </c>
+      <c r="F37">
         <v>27.42106254664147</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>28.76768521548835</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>1.655519341261516</v>
       </c>
-      <c r="H37" t="n">
-        <v>356.2705433387828</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>450.195111441001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>188.2406230344043</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.95523233506816</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>40.99694582011717</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>64.66937475890434</v>
+      </c>
+      <c r="F38">
         <v>17.71822503013756</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>28.76768521548835</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.655519341261516</v>
       </c>
-      <c r="H38" t="n">
-        <v>284.3342307764771</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>349.0036055353814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>134.7212302108971</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>9.73732526909542</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>19.73927020968604</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F39">
         <v>12.65587502152683</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>16.92216777381667</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>2.483279011892273</v>
       </c>
-      <c r="H39" t="n">
-        <v>196.2591474969144</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>223.9745938221591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>79.35634108313121</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>11.12837173610905</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>21.25767561043113</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>12.31797614455321</v>
+      </c>
+      <c r="F40">
         <v>10.12470001722147</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>23.69103488334335</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>145.5581233302362</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>157.8760994747894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>61.23692282313504</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11.59205389178026</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>7.592027003725405</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F41">
         <v>8.015387513633659</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>28.76768521548835</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>117.2040764477627</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>123.3630645200393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>39.76205673721372</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>12.9831003587939</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>12.14724320596064</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>7.698735090345758</v>
+      </c>
+      <c r="F42">
         <v>8.437250014351221</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>25.38325166072503</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>98.7129019770445</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>106.4116370673903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>27.85021695517923</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>14.37414682580753</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>22.77608101117621</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>3.079494036138302</v>
+      </c>
+      <c r="F43">
         <v>6.749800011480978</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>16.92216777381667</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H43" t="n">
-        <v>89.5001722480914</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>92.5796662842297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>30.87011999851192</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>14.37414682580753</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>15.18405400745081</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F44">
         <v>9.280975015786343</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>10.15330066429</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>79.8625965118466</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>86.0215845841232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>41.60755304147262</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.636821556712107</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>28.84970261415653</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>9.238482108414912</v>
+      </c>
+      <c r="F45">
         <v>15.60891252654976</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>21.99881810596169</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>3.311038682523032</v>
       </c>
-      <c r="H45" t="n">
-        <v>116.0128465273757</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>125.2513286357907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>96.63689738664604</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3.709457245369685</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>45.55216202235243</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>46.19241054207455</v>
+      </c>
+      <c r="F46">
         <v>48.09232508180195</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>74.45753820479337</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>1.655519341261516</v>
       </c>
-      <c r="H46" t="n">
-        <v>270.103899282225</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>316.2963098242996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>183.7107684694053</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.88259664641058</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>77.43867543799909</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>133.9579905720162</v>
+      </c>
+      <c r="F47">
         <v>70.87290012055024</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>104.9174401976634</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>9.105356376938337</v>
       </c>
-      <c r="H47" t="n">
-        <v>453.9277372489669</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>587.8857278209831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>264.2415162916101</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>12.05573604745148</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>81.99389164023434</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>146.2759667165693</v>
+      </c>
+      <c r="F48">
         <v>74.66966262700831</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>133.6851254131518</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>14.07191440072288</v>
       </c>
-      <c r="H48" t="n">
-        <v>580.7178464201789</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>726.9938131367481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>287.3941062904942</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>20.86569700520447</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>103.2515672506655</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>69.2886158131118</v>
+      </c>
+      <c r="F49">
         <v>76.35711262987853</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>91.37970597861005</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>5.794317694415305</v>
       </c>
-      <c r="H49" t="n">
-        <v>585.0425068492681</v>
+      <c r="I49">
+        <v>654.3311226623799</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>253.3363108573533</v>
+        <v>367.2275045210505</v>
       </c>
       <c r="C2">
-        <v>23.64778993923174</v>
+        <v>34.27901376408636</v>
       </c>
       <c r="D2">
-        <v>106.2883780521556</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E2">
-        <v>52.35139861435113</v>
+        <v>75.88676651315073</v>
       </c>
       <c r="F2">
-        <v>74.66966262700831</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G2">
-        <v>89.6874892012284</v>
+        <v>130.0078647812588</v>
       </c>
       <c r="H2">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I2">
-        <v>607.4308663270053</v>
+        <v>880.5106557974939</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>238.7401128145787</v>
+        <v>346.0693635320891</v>
       </c>
       <c r="C3">
-        <v>30.1393401186287</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D3">
-        <v>130.5828644640769</v>
+        <v>189.2883783144489</v>
       </c>
       <c r="E3">
-        <v>20.01671123489896</v>
+        <v>29.01552837267528</v>
       </c>
       <c r="F3">
-        <v>82.26318763992438</v>
+        <v>119.2458554745687</v>
       </c>
       <c r="G3">
-        <v>79.53418853693839</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H3">
-        <v>19.03847242450743</v>
+        <v>27.59750741882947</v>
       </c>
       <c r="I3">
-        <v>600.3148772335534</v>
+        <v>870.19556552029</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>223.1372804240263</v>
+        <v>323.4520404059584</v>
       </c>
       <c r="C4">
-        <v>23.64778993923174</v>
+        <v>34.27901376408636</v>
       </c>
       <c r="D4">
-        <v>65.29143223203846</v>
+        <v>94.64418915722445</v>
       </c>
       <c r="E4">
-        <v>18.47696421682982</v>
+        <v>26.78356465170027</v>
       </c>
       <c r="F4">
-        <v>65.38868761122197</v>
+        <v>94.78516717209305</v>
       </c>
       <c r="G4">
-        <v>76.14975498217504</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H4">
-        <v>16.55519341261516</v>
+        <v>23.99783253811258</v>
       </c>
       <c r="I4">
-        <v>488.6471028181385</v>
+        <v>708.3258438242062</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>258.8727997701299</v>
+        <v>375.2530062754841</v>
       </c>
       <c r="C5">
-        <v>25.50251856191658</v>
+        <v>36.96756386323039</v>
       </c>
       <c r="D5">
-        <v>88.06751324321466</v>
+        <v>127.6596039795121</v>
       </c>
       <c r="E5">
-        <v>32.33468737945217</v>
+        <v>46.87123814047546</v>
       </c>
       <c r="F5">
-        <v>78.88828763418391</v>
+        <v>114.3537178140735</v>
       </c>
       <c r="G5">
-        <v>62.61202076312169</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H5">
-        <v>14.07191440072288</v>
+        <v>20.3981576573957</v>
       </c>
       <c r="I5">
-        <v>560.3497417527418</v>
+        <v>812.2634952189748</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>240.7533815101337</v>
+        <v>348.9877278064289</v>
       </c>
       <c r="C6">
-        <v>26.429882873259</v>
+        <v>38.31183891280241</v>
       </c>
       <c r="D6">
-        <v>107.8067834529007</v>
+        <v>156.2729634921613</v>
       </c>
       <c r="E6">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F6">
-        <v>84.3725001435122</v>
+        <v>122.3034415123782</v>
       </c>
       <c r="G6">
-        <v>64.30423754050337</v>
+        <v>93.21318606958185</v>
       </c>
       <c r="H6">
-        <v>12.41639505946137</v>
+        <v>17.99837440358444</v>
       </c>
       <c r="I6">
-        <v>563.7986269050151</v>
+        <v>817.2628791744875</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>258.2017102049448</v>
+        <v>374.2802181840375</v>
       </c>
       <c r="C7">
-        <v>27.35724718460142</v>
+        <v>39.65611396237441</v>
       </c>
       <c r="D7">
-        <v>124.5092428610966</v>
+        <v>180.4842676951722</v>
       </c>
       <c r="E7">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F7">
-        <v>88.59112515068782</v>
+        <v>128.418613587997</v>
       </c>
       <c r="G7">
-        <v>60.91980398574004</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H7">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I7">
-        <v>598.0554514305152</v>
+        <v>866.9203804649296</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>263.9059715090177</v>
+        <v>382.5489169613326</v>
       </c>
       <c r="C8">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D8">
-        <v>121.4724320596065</v>
+        <v>176.0822123855339</v>
       </c>
       <c r="E8">
-        <v>30.79494036138303</v>
+        <v>44.63927441950045</v>
       </c>
       <c r="F8">
-        <v>82.68505014064196</v>
+        <v>119.8573726821306</v>
       </c>
       <c r="G8">
-        <v>52.4587200988317</v>
+        <v>76.04233600413254</v>
       </c>
       <c r="H8">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I8">
-        <v>582.1502682701415</v>
+        <v>843.8647801794137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>295.1116362901222</v>
+        <v>427.7835632135944</v>
       </c>
       <c r="C9">
-        <v>23.18410778356053</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D9">
-        <v>106.2883780521556</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E9">
-        <v>49.27190457821283</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F9">
-        <v>73.40407512485561</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G9">
-        <v>55.84315365359503</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H9">
-        <v>9.105356376938337</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I9">
-        <v>612.2086118594401</v>
+        <v>887.436309538858</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>320.4452673758575</v>
+        <v>464.5063136656996</v>
       </c>
       <c r="C10">
-        <v>28.28461149594384</v>
+        <v>41.00038901194642</v>
       </c>
       <c r="D10">
-        <v>97.17794564768514</v>
+        <v>140.865769908427</v>
       </c>
       <c r="E10">
-        <v>92.38482108414911</v>
+        <v>133.9178232585013</v>
       </c>
       <c r="F10">
-        <v>70.45103761983269</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G10">
-        <v>42.3054194345417</v>
+        <v>61.32446451946176</v>
       </c>
       <c r="H10">
-        <v>4.966558023784547</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I10">
-        <v>656.0156606817945</v>
+        <v>950.9374837883056</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>340.5779543314088</v>
+        <v>493.6899564090941</v>
       </c>
       <c r="C11">
-        <v>17.619921915506</v>
+        <v>25.54122594186827</v>
       </c>
       <c r="D11">
-        <v>83.51229704097945</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E11">
-        <v>98.54380915642567</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F11">
-        <v>39.23321256673317</v>
+        <v>56.87110030325584</v>
       </c>
       <c r="G11">
-        <v>8.461083886908337</v>
+        <v>12.26489290389235</v>
       </c>
       <c r="H11">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I11">
-        <v>593.7425965923768</v>
+        <v>860.6686161039058</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>248.1353667271692</v>
+        <v>359.6883968123401</v>
       </c>
       <c r="C12">
-        <v>14.83782898147874</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D12">
-        <v>85.0307024417245</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E12">
-        <v>60.0501337046969</v>
+        <v>87.04658511802586</v>
       </c>
       <c r="F12">
-        <v>35.01458755955756</v>
+        <v>50.75592822763692</v>
       </c>
       <c r="G12">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H12">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I12">
-        <v>463.3385233070869</v>
+        <v>671.6394072634032</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>216.426384772176</v>
+        <v>313.7241594914934</v>
       </c>
       <c r="C13">
-        <v>10.20100742476663</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D13">
-        <v>50.10737822458764</v>
+        <v>72.63391260903272</v>
       </c>
       <c r="E13">
-        <v>80.06684493959585</v>
+        <v>116.0621134907011</v>
       </c>
       <c r="F13">
-        <v>21.93685003731317</v>
+        <v>31.79889479321832</v>
       </c>
       <c r="G13">
-        <v>30.45990199287002</v>
+        <v>44.15361445401247</v>
       </c>
       <c r="H13">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I13">
-        <v>413.3371657444631</v>
+        <v>599.1591785182783</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>171.4633839047782</v>
+        <v>248.5473573645785</v>
       </c>
       <c r="C14">
-        <v>8.809960957753002</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D14">
-        <v>51.62578362533273</v>
+        <v>74.83494026385189</v>
       </c>
       <c r="E14">
-        <v>50.811651596282</v>
+        <v>73.65480279217573</v>
       </c>
       <c r="F14">
-        <v>14.76518752511464</v>
+        <v>21.40310226466617</v>
       </c>
       <c r="G14">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H14">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I14">
-        <v>325.3058008457577</v>
+        <v>471.5519739216331</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>121.1316665159001</v>
+        <v>175.5882505060916</v>
       </c>
       <c r="C15">
-        <v>12.51941820312269</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D15">
-        <v>33.40491881639178</v>
+        <v>48.4226084060218</v>
       </c>
       <c r="E15">
-        <v>29.25519334331387</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F15">
-        <v>12.65587502152683</v>
+        <v>18.34551622685672</v>
       </c>
       <c r="G15">
-        <v>20.30660132858001</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="I15">
-        <v>229.2736732288352</v>
+        <v>332.3471419760593</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>74.49094173553964</v>
+        <v>107.9794781505605</v>
       </c>
       <c r="C16">
-        <v>10.20100742476663</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D16">
-        <v>22.77608101117621</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E16">
-        <v>15.39747018069152</v>
+        <v>22.31963720975023</v>
       </c>
       <c r="F16">
-        <v>9.702837516503903</v>
+        <v>14.06489577392349</v>
       </c>
       <c r="G16">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I16">
-        <v>151.1827224198763</v>
+        <v>219.1492158903772</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>57.88147499720987</v>
+        <v>83.90297288725991</v>
       </c>
       <c r="C17">
-        <v>14.37414682580753</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D17">
-        <v>7.592027003725405</v>
+        <v>11.00513827409587</v>
       </c>
       <c r="E17">
-        <v>3.079494036138302</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F17">
-        <v>5.484212509328294</v>
+        <v>7.949723698304579</v>
       </c>
       <c r="G17">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="I17">
-        <v>110.4101734781711</v>
+        <v>160.0467471200967</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>37.74878804165861</v>
+        <v>54.71933014386511</v>
       </c>
       <c r="C18">
-        <v>12.9831003587939</v>
+        <v>18.8198506940082</v>
       </c>
       <c r="D18">
-        <v>13.66564860670573</v>
+        <v>19.80924889337256</v>
       </c>
       <c r="E18">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F18">
-        <v>10.12470001722147</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G18">
-        <v>13.53773421905334</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="I18">
-        <v>94.21895931570965</v>
+        <v>136.5765262428591</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>22.48150043369889</v>
+        <v>32.58840106345744</v>
       </c>
       <c r="C19">
-        <v>11.59205389178026</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D19">
-        <v>18.22086480894097</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E19">
-        <v>1.539747018069151</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F19">
-        <v>4.640487507893171</v>
+        <v>6.726689283180797</v>
       </c>
       <c r="G19">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H19">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I19">
-        <v>88.07009854650154</v>
+        <v>127.6633515452331</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>27.17912738999419</v>
+        <v>39.39791770358291</v>
       </c>
       <c r="C20">
-        <v>8.809960957753002</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D20">
-        <v>22.77608101117621</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E20">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F20">
-        <v>9.280975015786343</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G20">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H20">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I20">
-        <v>97.18417998289132</v>
+        <v>140.8748069838955</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>46.6407247803604</v>
+        <v>67.60877235553114</v>
       </c>
       <c r="C21">
-        <v>4.173139401040896</v>
+        <v>6.049237723074063</v>
       </c>
       <c r="D21">
-        <v>31.88651341564669</v>
+        <v>46.22158075120262</v>
       </c>
       <c r="E21">
-        <v>10.77822912648406</v>
+        <v>15.62374604682515</v>
       </c>
       <c r="F21">
-        <v>16.45263752798488</v>
+        <v>23.84917109491374</v>
       </c>
       <c r="G21">
-        <v>38.92098587977836</v>
+        <v>56.41850735790481</v>
       </c>
       <c r="I21">
-        <v>148.8522301312953</v>
+        <v>215.7710153294515</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>93.7847667346096</v>
+        <v>135.9471357796471</v>
       </c>
       <c r="C22">
-        <v>3.709457245369685</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D22">
-        <v>47.0705674230975</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E22">
-        <v>44.6526635240054</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F22">
-        <v>46.40487507893172</v>
+        <v>67.26689283180799</v>
       </c>
       <c r="G22">
-        <v>71.07310465003006</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H22">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I22">
-        <v>308.3509539973055</v>
+        <v>446.9748176639202</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>178.1742795566286</v>
+        <v>258.2752382790434</v>
       </c>
       <c r="C23">
-        <v>8.346278802081791</v>
+        <v>12.09847544614813</v>
       </c>
       <c r="D23">
-        <v>80.47548623948926</v>
+        <v>116.6544657054161</v>
       </c>
       <c r="E23">
-        <v>129.3387495178087</v>
+        <v>187.4849525619018</v>
       </c>
       <c r="F23">
-        <v>68.34172511624489</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G23">
-        <v>99.84078986551842</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H23">
-        <v>9.933116047569094</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I23">
-        <v>574.4504251453408</v>
+        <v>832.703355406333</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>256.3562139006859</v>
+        <v>371.6050509325595</v>
       </c>
       <c r="C24">
-        <v>12.51941820312269</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D24">
-        <v>85.0307024417245</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E24">
-        <v>140.1169786442927</v>
+        <v>203.1086986087271</v>
       </c>
       <c r="F24">
-        <v>72.13848762270294</v>
+        <v>104.5694424930833</v>
       </c>
       <c r="G24">
-        <v>126.9162583036251</v>
+        <v>183.9733935583852</v>
       </c>
       <c r="H24">
-        <v>14.89967407135364</v>
+        <v>21.59804928430133</v>
       </c>
       <c r="I24">
-        <v>707.9777331875075</v>
+        <v>1026.259896716153</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>278.6699419430887</v>
+        <v>403.9502549731555</v>
       </c>
       <c r="C25">
-        <v>21.32937916087568</v>
+        <v>30.91832614015632</v>
       </c>
       <c r="D25">
-        <v>106.2883780521556</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E25">
-        <v>66.20912177697352</v>
+        <v>95.97444000192596</v>
       </c>
       <c r="F25">
-        <v>73.40407512485561</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G25">
-        <v>86.30305564646505</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H25">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I25">
-        <v>638.8260290694602</v>
+        <v>926.0199917032959</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>261.2216132482777</v>
+        <v>378.6577645955468</v>
       </c>
       <c r="C26">
-        <v>22.72042562788932</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D26">
-        <v>103.2515672506655</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E26">
-        <v>53.8911456324203</v>
+        <v>78.11873023412576</v>
       </c>
       <c r="F26">
-        <v>77.62270013203123</v>
+        <v>112.5191661913879</v>
       </c>
       <c r="G26">
-        <v>94.76413953337338</v>
+        <v>137.3668005235943</v>
       </c>
       <c r="H26">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I26">
-        <v>620.0936687897034</v>
+        <v>898.8662138021178</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>246.1220980316141</v>
+        <v>356.7700325380005</v>
       </c>
       <c r="C27">
-        <v>29.21197580728626</v>
+        <v>42.34466406151844</v>
       </c>
       <c r="D27">
-        <v>126.0276482618417</v>
+        <v>182.6852953499914</v>
       </c>
       <c r="E27">
-        <v>21.55645825296811</v>
+        <v>31.2474920936503</v>
       </c>
       <c r="F27">
-        <v>85.21622514494734</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G27">
-        <v>82.91862209170168</v>
+        <v>120.195950458145</v>
       </c>
       <c r="H27">
-        <v>17.38295308324591</v>
+        <v>25.19772416501821</v>
       </c>
       <c r="I27">
-        <v>608.4359806736049</v>
+        <v>881.9676345938259</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>249.4775458575393</v>
+        <v>361.6339729952333</v>
       </c>
       <c r="C28">
-        <v>26.89356502893021</v>
+        <v>38.98397643758842</v>
       </c>
       <c r="D28">
-        <v>98.69635104843024</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E28">
-        <v>21.55645825296811</v>
+        <v>31.2474920936503</v>
       </c>
       <c r="F28">
-        <v>76.35711262987853</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G28">
-        <v>87.99527242384674</v>
+        <v>127.5548862004804</v>
       </c>
       <c r="H28">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I28">
-        <v>571.737180959793</v>
+        <v>828.7703310086741</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>260.3827512917963</v>
+        <v>377.4417794812387</v>
       </c>
       <c r="C29">
-        <v>28.74829365161506</v>
+        <v>41.67252653673244</v>
       </c>
       <c r="D29">
-        <v>83.51229704097945</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E29">
-        <v>23.09620527103728</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F29">
-        <v>76.35711262987853</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G29">
-        <v>71.07310465003006</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H29">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I29">
-        <v>549.7918419003827</v>
+        <v>796.9591308242939</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>270.2813223782755</v>
+        <v>391.7904038300745</v>
       </c>
       <c r="C30">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D30">
-        <v>69.84664843427372</v>
+        <v>101.247272121682</v>
       </c>
       <c r="E30">
-        <v>26.17569930717557</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F30">
-        <v>94.91906266145122</v>
+        <v>137.5913717014254</v>
       </c>
       <c r="G30">
-        <v>79.53418853693839</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H30">
-        <v>9.933116047569094</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I30">
-        <v>575.7288737719289</v>
+        <v>834.5565500676573</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>242.9344225969852</v>
+        <v>352.1492891036298</v>
       </c>
       <c r="C31">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D31">
-        <v>92.62272944544991</v>
+        <v>134.2626869439696</v>
       </c>
       <c r="E31">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F31">
-        <v>74.24780012629074</v>
+        <v>107.6270285308927</v>
       </c>
       <c r="G31">
-        <v>55.84315365359503</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H31">
-        <v>4.966558023784547</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I31">
-        <v>523.3689465775955</v>
+        <v>758.6574208216101</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>270.6168671608681</v>
+        <v>392.2767978757977</v>
       </c>
       <c r="C32">
-        <v>22.25674347221811</v>
+        <v>32.26260118972834</v>
       </c>
       <c r="D32">
-        <v>139.6932968685474</v>
+        <v>202.494544243364</v>
       </c>
       <c r="E32">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F32">
-        <v>85.21622514494734</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G32">
-        <v>52.4587200988317</v>
+        <v>76.04233600413254</v>
       </c>
       <c r="H32">
-        <v>11.58863538883061</v>
+        <v>16.79848277667881</v>
       </c>
       <c r="I32">
-        <v>609.5459344594881</v>
+        <v>883.5765849947536</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>271.9590462912382</v>
+        <v>394.2223740586905</v>
       </c>
       <c r="C33">
-        <v>23.18410778356053</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D33">
-        <v>118.4356212581163</v>
+        <v>171.6801570758955</v>
       </c>
       <c r="E33">
-        <v>40.03342246979793</v>
+        <v>58.03105674535056</v>
       </c>
       <c r="F33">
-        <v>78.88828763418391</v>
+        <v>114.3537178140735</v>
       </c>
       <c r="G33">
-        <v>65.99645431788505</v>
+        <v>95.66616465036034</v>
       </c>
       <c r="H33">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I33">
-        <v>609.2578154729817</v>
+        <v>883.1589377334441</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>324.639577158264</v>
+        <v>470.5862392372401</v>
       </c>
       <c r="C34">
-        <v>19.93833269386205</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D34">
-        <v>103.2515672506655</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E34">
-        <v>81.60659195766502</v>
+        <v>118.2940772116762</v>
       </c>
       <c r="F34">
-        <v>65.81055011193952</v>
+        <v>95.39668437965496</v>
       </c>
       <c r="G34">
-        <v>37.22876910239668</v>
+        <v>53.96552877712634</v>
       </c>
       <c r="H34">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I34">
-        <v>640.7529849811003</v>
+        <v>928.8132399682559</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>338.9002304184461</v>
+        <v>491.257986180478</v>
       </c>
       <c r="C35">
-        <v>15.30151113714995</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D35">
-        <v>85.0307024417245</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E35">
-        <v>90.84507406607992</v>
+        <v>131.6858595375263</v>
       </c>
       <c r="F35">
-        <v>51.04536258682487</v>
+        <v>73.99358211498878</v>
       </c>
       <c r="G35">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H35">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I35">
-        <v>611.4359928986148</v>
+        <v>886.3163479669485</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>255.0140347703158</v>
+        <v>369.6594747496667</v>
       </c>
       <c r="C36">
-        <v>12.51941820312269</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D36">
-        <v>86.54910784246957</v>
+        <v>125.4585763246929</v>
       </c>
       <c r="E36">
-        <v>95.46431512028735</v>
+        <v>138.3817507004514</v>
       </c>
       <c r="F36">
-        <v>31.63968755381708</v>
+        <v>45.86379056714181</v>
       </c>
       <c r="G36">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H36">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I36">
-        <v>507.3241799491279</v>
+        <v>735.3994851958232</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>236.7268441190235</v>
+        <v>343.1509992577496</v>
       </c>
       <c r="C37">
-        <v>11.59205389178026</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D37">
-        <v>50.10737822458764</v>
+        <v>72.63391260903272</v>
       </c>
       <c r="E37">
-        <v>93.9245681022182</v>
+        <v>136.1497869794763</v>
       </c>
       <c r="F37">
-        <v>27.42106254664147</v>
+        <v>39.7486184915229</v>
       </c>
       <c r="G37">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H37">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I37">
-        <v>450.195111441001</v>
+        <v>652.587174584477</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>188.2406230344043</v>
+        <v>272.8670596507407</v>
       </c>
       <c r="C38">
-        <v>6.95523233506816</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D38">
-        <v>40.99694582011717</v>
+        <v>59.42774668011769</v>
       </c>
       <c r="E38">
-        <v>64.66937475890434</v>
+        <v>93.74247628095091</v>
       </c>
       <c r="F38">
-        <v>17.71822503013756</v>
+        <v>25.68372271759941</v>
       </c>
       <c r="G38">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H38">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>349.0036055353814</v>
+        <v>505.9034873282441</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>134.7212302108971</v>
+        <v>195.2872093578831</v>
       </c>
       <c r="C39">
-        <v>9.73732526909542</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D39">
-        <v>19.73927020968604</v>
+        <v>28.61335951264925</v>
       </c>
       <c r="E39">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F39">
-        <v>12.65587502152683</v>
+        <v>18.34551622685672</v>
       </c>
       <c r="G39">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H39">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I39">
-        <v>223.9745938221591</v>
+        <v>324.6657807839472</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>79.35634108313121</v>
+        <v>115.0321918135476</v>
       </c>
       <c r="C40">
-        <v>11.12837173610905</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D40">
-        <v>21.25767561043113</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E40">
-        <v>12.31797614455321</v>
+        <v>17.85570976780017</v>
       </c>
       <c r="F40">
-        <v>10.12470001722147</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G40">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="I40">
-        <v>157.8760994747894</v>
+        <v>228.8517024560643</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>61.23692282313504</v>
+        <v>88.76691334449232</v>
       </c>
       <c r="C41">
-        <v>11.59205389178026</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D41">
-        <v>7.592027003725405</v>
+        <v>11.00513827409587</v>
       </c>
       <c r="E41">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F41">
-        <v>8.015387513633659</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G41">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="I41">
-        <v>123.3630645200393</v>
+        <v>178.8228074390483</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>39.76205673721372</v>
+        <v>57.6376944182046</v>
       </c>
       <c r="C42">
-        <v>12.9831003587939</v>
+        <v>18.8198506940082</v>
       </c>
       <c r="D42">
-        <v>12.14724320596064</v>
+        <v>17.60822123855338</v>
       </c>
       <c r="E42">
-        <v>7.698735090345758</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F42">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G42">
-        <v>25.38325166072503</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="I42">
-        <v>106.4116370673903</v>
+        <v>154.2506078185561</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>27.85021695517923</v>
+        <v>40.37070579502935</v>
       </c>
       <c r="C43">
-        <v>14.37414682580753</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D43">
-        <v>22.77608101117621</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E43">
-        <v>3.079494036138302</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F43">
-        <v>6.749800011480978</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G43">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H43">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I43">
-        <v>92.5796662842297</v>
+        <v>134.2002640833138</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>30.87011999851192</v>
+        <v>44.7482522065386</v>
       </c>
       <c r="C44">
-        <v>14.37414682580753</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D44">
-        <v>15.18405400745081</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E44">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F44">
-        <v>9.280975015786343</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G44">
-        <v>10.15330066429</v>
+        <v>14.71787148467082</v>
       </c>
       <c r="I44">
-        <v>86.0215845841232</v>
+        <v>124.6938969580291</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>41.60755304147262</v>
+        <v>60.31286166968244</v>
       </c>
       <c r="C45">
-        <v>4.636821556712107</v>
+        <v>6.721375247860069</v>
       </c>
       <c r="D45">
-        <v>28.84970261415653</v>
+        <v>41.81952544156431</v>
       </c>
       <c r="E45">
-        <v>9.238482108414912</v>
+        <v>13.39178232585014</v>
       </c>
       <c r="F45">
-        <v>15.60891252654976</v>
+        <v>22.62613667978996</v>
       </c>
       <c r="G45">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H45">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I45">
-        <v>125.2513286357907</v>
+        <v>181.5599694224896</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>96.63689738664604</v>
+        <v>140.0814851682947</v>
       </c>
       <c r="C46">
-        <v>3.709457245369685</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D46">
-        <v>45.55216202235243</v>
+        <v>66.03082964457519</v>
       </c>
       <c r="E46">
-        <v>46.19241054207455</v>
+        <v>66.95891162925065</v>
       </c>
       <c r="F46">
-        <v>48.09232508180195</v>
+        <v>69.71296166205553</v>
       </c>
       <c r="G46">
-        <v>74.45753820479337</v>
+        <v>107.9310575542527</v>
       </c>
       <c r="H46">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I46">
-        <v>316.2963098242996</v>
+        <v>458.4921291105281</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>183.7107684694053</v>
+        <v>266.300740033477</v>
       </c>
       <c r="C47">
-        <v>7.88259664641058</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D47">
-        <v>77.43867543799909</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E47">
-        <v>133.9579905720162</v>
+        <v>194.1808437248269</v>
       </c>
       <c r="F47">
-        <v>70.87290012055024</v>
+        <v>102.7348908703976</v>
       </c>
       <c r="G47">
-        <v>104.9174401976634</v>
+        <v>152.0846720082651</v>
       </c>
       <c r="H47">
-        <v>9.105356376938337</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I47">
-        <v>587.8857278209831</v>
+        <v>852.1787028500685</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>264.2415162916101</v>
+        <v>383.0353110070561</v>
       </c>
       <c r="C48">
-        <v>12.05573604745148</v>
+        <v>17.47557564443618</v>
       </c>
       <c r="D48">
-        <v>81.99389164023434</v>
+        <v>118.8554933602354</v>
       </c>
       <c r="E48">
-        <v>146.2759667165693</v>
+        <v>212.0365534926271</v>
       </c>
       <c r="F48">
-        <v>74.66966262700831</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G48">
-        <v>133.6851254131518</v>
+        <v>193.7853078814992</v>
       </c>
       <c r="H48">
-        <v>14.07191440072288</v>
+        <v>20.3981576573957</v>
       </c>
       <c r="I48">
-        <v>726.9938131367481</v>
+        <v>1053.824944781704</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>287.3941062904942</v>
+        <v>416.5965001619599</v>
       </c>
       <c r="C49">
-        <v>20.86569700520447</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D49">
-        <v>103.2515672506655</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E49">
-        <v>69.2886158131118</v>
+        <v>100.438367443876</v>
       </c>
       <c r="F49">
-        <v>76.35711262987853</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G49">
-        <v>91.37970597861005</v>
+        <v>132.4608433620374</v>
       </c>
       <c r="H49">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I49">
-        <v>654.3311226623799</v>
+        <v>948.4956360679892</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>367.2275045210505</v>
+        <v>249.5913393055491</v>
       </c>
       <c r="C2">
-        <v>34.27901376408636</v>
+        <v>23.2982139140431</v>
       </c>
       <c r="D2">
-        <v>154.0719358373421</v>
+        <v>104.7171585505151</v>
       </c>
       <c r="E2">
-        <v>75.88676651315073</v>
+        <v>51.57750837396511</v>
       </c>
       <c r="F2">
-        <v>108.2385457384547</v>
+        <v>73.56585022295687</v>
       </c>
       <c r="G2">
-        <v>130.0078647812588</v>
+        <v>88.36167414347112</v>
       </c>
       <c r="H2">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I2">
-        <v>880.5106557974939</v>
+        <v>598.4514535204323</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>346.0693635320891</v>
+        <v>235.2109111468849</v>
       </c>
       <c r="C3">
-        <v>43.68893911109045</v>
+        <v>29.69380204730983</v>
       </c>
       <c r="D3">
-        <v>189.2883783144489</v>
+        <v>128.6525090763471</v>
       </c>
       <c r="E3">
-        <v>29.01552837267528</v>
+        <v>19.72081202533959</v>
       </c>
       <c r="F3">
-        <v>119.2458554745687</v>
+        <v>81.04712312698639</v>
       </c>
       <c r="G3">
-        <v>115.2899932965881</v>
+        <v>78.3584657498706</v>
       </c>
       <c r="H3">
-        <v>27.59750741882947</v>
+        <v>18.75703413649298</v>
       </c>
       <c r="I3">
-        <v>870.19556552029</v>
+        <v>591.4406573092314</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>323.4520404059584</v>
+        <v>219.8387293221061</v>
       </c>
       <c r="C4">
-        <v>34.27901376408636</v>
+        <v>23.2982139140431</v>
       </c>
       <c r="D4">
-        <v>94.64418915722445</v>
+        <v>64.32625453817356</v>
       </c>
       <c r="E4">
-        <v>26.78356465170027</v>
+        <v>18.20382648492886</v>
       </c>
       <c r="F4">
-        <v>94.78516717209305</v>
+        <v>64.42207222914303</v>
       </c>
       <c r="G4">
-        <v>110.3840361350311</v>
+        <v>75.02406295200377</v>
       </c>
       <c r="H4">
-        <v>23.99783253811258</v>
+        <v>16.31046446651563</v>
       </c>
       <c r="I4">
-        <v>708.3258438242062</v>
+        <v>481.423623906914</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>375.2530062754841</v>
+        <v>255.0459844691802</v>
       </c>
       <c r="C5">
-        <v>36.96756386323039</v>
+        <v>25.12552480926216</v>
       </c>
       <c r="D5">
-        <v>127.6596039795121</v>
+        <v>86.76564565614106</v>
       </c>
       <c r="E5">
-        <v>46.87123814047546</v>
+        <v>31.8566963486255</v>
       </c>
       <c r="F5">
-        <v>114.3537178140735</v>
+        <v>77.7221129474177</v>
       </c>
       <c r="G5">
-        <v>90.76020748880339</v>
+        <v>61.68645176053642</v>
       </c>
       <c r="H5">
-        <v>20.3981576573957</v>
+        <v>13.86389479653829</v>
       </c>
       <c r="I5">
-        <v>812.2634952189748</v>
+        <v>552.0663107877014</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>348.9877278064289</v>
+        <v>237.1944184791145</v>
       </c>
       <c r="C6">
-        <v>38.31183891280241</v>
+        <v>26.03918025687171</v>
       </c>
       <c r="D6">
-        <v>156.2729634921613</v>
+        <v>106.2131179583796</v>
       </c>
       <c r="E6">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F6">
-        <v>122.3034415123782</v>
+        <v>83.1252544892168</v>
       </c>
       <c r="G6">
-        <v>93.21318606958185</v>
+        <v>63.35365315946986</v>
       </c>
       <c r="H6">
-        <v>17.99837440358444</v>
+        <v>12.23284834988672</v>
       </c>
       <c r="I6">
-        <v>817.2628791744875</v>
+        <v>555.4642124203325</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>374.2802181840375</v>
+        <v>254.384815358437</v>
       </c>
       <c r="C7">
-        <v>39.65611396237441</v>
+        <v>26.95283570448124</v>
       </c>
       <c r="D7">
-        <v>180.4842676951722</v>
+        <v>122.6686714448891</v>
       </c>
       <c r="E7">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F7">
-        <v>128.418613587997</v>
+        <v>87.28151721367766</v>
       </c>
       <c r="G7">
-        <v>88.30722890802494</v>
+        <v>60.01925036160301</v>
       </c>
       <c r="H7">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I7">
-        <v>866.9203804649296</v>
+        <v>589.2146317137165</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>382.5489169613326</v>
+        <v>260.004752799754</v>
       </c>
       <c r="C8">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D8">
-        <v>176.0822123855339</v>
+        <v>119.6767526291601</v>
       </c>
       <c r="E8">
-        <v>44.63927441950045</v>
+        <v>30.33971080821476</v>
       </c>
       <c r="F8">
-        <v>119.8573726821306</v>
+        <v>81.46274939943248</v>
       </c>
       <c r="G8">
-        <v>76.04233600413254</v>
+        <v>51.68324336693593</v>
       </c>
       <c r="H8">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I8">
-        <v>843.8647801794137</v>
+        <v>573.5445686522351</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>427.7835632135944</v>
+        <v>290.7491164493118</v>
       </c>
       <c r="C9">
-        <v>33.60687623930036</v>
+        <v>22.84138619023833</v>
       </c>
       <c r="D9">
-        <v>154.0719358373421</v>
+        <v>104.7171585505151</v>
       </c>
       <c r="E9">
-        <v>71.4228390712007</v>
+        <v>48.54353729314361</v>
       </c>
       <c r="F9">
-        <v>106.403994115769</v>
+        <v>72.31897140561863</v>
       </c>
       <c r="G9">
-        <v>80.94829316568951</v>
+        <v>55.01764616480276</v>
       </c>
       <c r="H9">
-        <v>13.19880789596192</v>
+        <v>8.970755456583596</v>
       </c>
       <c r="I9">
-        <v>887.436309538858</v>
+        <v>603.1585715102137</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>464.5063136656996</v>
+        <v>315.7082503798666</v>
       </c>
       <c r="C10">
-        <v>41.00038901194642</v>
+        <v>27.86649115209076</v>
       </c>
       <c r="D10">
-        <v>140.865769908427</v>
+        <v>95.74140210332808</v>
       </c>
       <c r="E10">
-        <v>133.9178232585013</v>
+        <v>91.01913242464424</v>
       </c>
       <c r="F10">
-        <v>102.1233736628357</v>
+        <v>69.40958749849604</v>
       </c>
       <c r="G10">
-        <v>61.32446451946176</v>
+        <v>41.68003497333544</v>
       </c>
       <c r="H10">
-        <v>7.199349761433776</v>
+        <v>4.89313933995469</v>
       </c>
       <c r="I10">
-        <v>950.9374837883056</v>
+        <v>646.3180378717159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>493.6899564090941</v>
+        <v>335.5433237021618</v>
       </c>
       <c r="C11">
-        <v>25.54122594186827</v>
+        <v>17.35945350458113</v>
       </c>
       <c r="D11">
-        <v>121.0565210150545</v>
+        <v>82.27776743254756</v>
       </c>
       <c r="E11">
-        <v>142.8456781424014</v>
+        <v>97.08707458628722</v>
       </c>
       <c r="F11">
-        <v>56.87110030325584</v>
+        <v>38.65324333748582</v>
       </c>
       <c r="G11">
-        <v>12.26489290389235</v>
+        <v>8.336006994667088</v>
       </c>
       <c r="H11">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I11">
-        <v>860.6686161039058</v>
+        <v>584.9655321210112</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>359.6883968123401</v>
+        <v>244.4672786972895</v>
       </c>
       <c r="C12">
-        <v>21.50840079315222</v>
+        <v>14.61848716175253</v>
       </c>
       <c r="D12">
-        <v>123.2575486698737</v>
+        <v>83.77372684041207</v>
       </c>
       <c r="E12">
-        <v>87.04658511802586</v>
+        <v>59.16243607601878</v>
       </c>
       <c r="F12">
-        <v>50.75592822763692</v>
+        <v>34.49698061302498</v>
       </c>
       <c r="G12">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="H12">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I12">
-        <v>671.6394072634032</v>
+        <v>456.4891712234169</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>313.7241594914934</v>
+        <v>213.2270382146742</v>
       </c>
       <c r="C13">
-        <v>14.78702554529216</v>
+        <v>10.05020992370486</v>
       </c>
       <c r="D13">
-        <v>72.63391260903272</v>
+        <v>49.36666045952855</v>
       </c>
       <c r="E13">
-        <v>116.0621134907011</v>
+        <v>78.88324810135836</v>
       </c>
       <c r="F13">
-        <v>31.79889479321832</v>
+        <v>21.61256616719637</v>
       </c>
       <c r="G13">
-        <v>44.15361445401247</v>
+        <v>30.0096251808015</v>
       </c>
       <c r="H13">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I13">
-        <v>599.1591785182783</v>
+        <v>407.2269641638928</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>248.5473573645785</v>
+        <v>168.9287077948815</v>
       </c>
       <c r="C14">
-        <v>12.77061297093413</v>
+        <v>8.679726752290566</v>
       </c>
       <c r="D14">
-        <v>74.83494026385189</v>
+        <v>50.86261986739304</v>
       </c>
       <c r="E14">
-        <v>73.65480279217573</v>
+        <v>50.06052283355436</v>
       </c>
       <c r="F14">
-        <v>21.40310226466617</v>
+        <v>14.54691953561294</v>
       </c>
       <c r="G14">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H14">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I14">
-        <v>471.5519739216331</v>
+        <v>320.4969324854292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>175.5882505060916</v>
+        <v>119.3410244891433</v>
       </c>
       <c r="C15">
-        <v>18.14771316922219</v>
+        <v>12.3343485427287</v>
       </c>
       <c r="D15">
-        <v>48.4226084060218</v>
+        <v>32.91110697301902</v>
       </c>
       <c r="E15">
-        <v>42.40731069852541</v>
+        <v>28.82272526780403</v>
       </c>
       <c r="F15">
-        <v>18.34551622685672</v>
+        <v>12.46878817338252</v>
       </c>
       <c r="G15">
-        <v>29.43574296934164</v>
+        <v>20.00641678720101</v>
       </c>
       <c r="I15">
-        <v>332.3471419760593</v>
+        <v>225.8844102332785</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>107.9794781505605</v>
+        <v>73.38977129249254</v>
       </c>
       <c r="C16">
-        <v>14.78702554529216</v>
+        <v>10.05020992370486</v>
       </c>
       <c r="D16">
-        <v>33.0154148222876</v>
+        <v>22.43939111796752</v>
       </c>
       <c r="E16">
-        <v>22.31963720975023</v>
+        <v>15.16985540410738</v>
       </c>
       <c r="F16">
-        <v>14.06489577392349</v>
+        <v>9.559404266259936</v>
       </c>
       <c r="G16">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="I16">
-        <v>219.1492158903772</v>
+        <v>148.9478473927998</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>83.90297288725991</v>
+        <v>57.02583580159894</v>
       </c>
       <c r="C17">
-        <v>20.83626326836622</v>
+        <v>14.16165943794777</v>
       </c>
       <c r="D17">
-        <v>11.00513827409587</v>
+        <v>7.479797039322507</v>
       </c>
       <c r="E17">
-        <v>4.463927441950044</v>
+        <v>3.033971080821475</v>
       </c>
       <c r="F17">
-        <v>7.949723698304579</v>
+        <v>5.403141541799093</v>
       </c>
       <c r="G17">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="I17">
-        <v>160.0467471200967</v>
+        <v>108.7780230876242</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>54.71933014386511</v>
+        <v>37.19076247930367</v>
       </c>
       <c r="C18">
-        <v>18.8198506940082</v>
+        <v>12.79117626653347</v>
       </c>
       <c r="D18">
-        <v>19.80924889337256</v>
+        <v>13.46363467078051</v>
       </c>
       <c r="E18">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F18">
-        <v>14.67641298148538</v>
+        <v>9.975030538706019</v>
       </c>
       <c r="G18">
-        <v>19.62382864622776</v>
+        <v>13.33761119146734</v>
       </c>
       <c r="I18">
-        <v>136.5765262428591</v>
+        <v>92.82615730843395</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>32.58840106345744</v>
+        <v>22.1491652098964</v>
       </c>
       <c r="C19">
-        <v>16.80343811965018</v>
+        <v>11.42069309511916</v>
       </c>
       <c r="D19">
-        <v>26.41233185783008</v>
+        <v>17.95151289437402</v>
       </c>
       <c r="E19">
-        <v>2.231963720975022</v>
+        <v>1.516985540410738</v>
       </c>
       <c r="F19">
-        <v>6.726689283180797</v>
+        <v>4.571888996906925</v>
       </c>
       <c r="G19">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="H19">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I19">
-        <v>127.6633515452331</v>
+        <v>86.76819274190112</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>39.39791770358291</v>
+        <v>26.77734898509862</v>
       </c>
       <c r="C20">
-        <v>12.77061297093413</v>
+        <v>8.679726752290566</v>
       </c>
       <c r="D20">
-        <v>33.0154148222876</v>
+        <v>22.43939111796752</v>
       </c>
       <c r="E20">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F20">
-        <v>13.45337856636159</v>
+        <v>9.143777993813849</v>
       </c>
       <c r="G20">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H20">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I20">
-        <v>140.8748069838955</v>
+        <v>95.74754427879641</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>67.60877235553114</v>
+        <v>45.95125319665073</v>
       </c>
       <c r="C21">
-        <v>6.049237723074063</v>
+        <v>4.1114495142429</v>
       </c>
       <c r="D21">
-        <v>46.22158075120262</v>
+        <v>31.41514756515452</v>
       </c>
       <c r="E21">
-        <v>15.62374604682515</v>
+        <v>10.61889878287517</v>
       </c>
       <c r="F21">
-        <v>23.84917109491374</v>
+        <v>16.20942462539728</v>
       </c>
       <c r="G21">
-        <v>56.41850735790481</v>
+        <v>38.3456321754686</v>
       </c>
       <c r="I21">
-        <v>215.7710153294515</v>
+        <v>146.6518058597892</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>135.9471357796471</v>
+        <v>92.39838322635886</v>
       </c>
       <c r="C22">
-        <v>5.377100198288056</v>
+        <v>3.654621790438133</v>
       </c>
       <c r="D22">
-        <v>68.23185729939436</v>
+        <v>46.37474164379952</v>
       </c>
       <c r="E22">
-        <v>64.72694790827565</v>
+        <v>43.9925806719114</v>
       </c>
       <c r="F22">
-        <v>67.26689283180799</v>
+        <v>45.71888996906925</v>
       </c>
       <c r="G22">
-        <v>103.0251003926957</v>
+        <v>70.02245875520353</v>
       </c>
       <c r="H22">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I22">
-        <v>446.9748176639202</v>
+        <v>303.7927225034323</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>258.2752382790434</v>
+        <v>175.5403989023133</v>
       </c>
       <c r="C23">
-        <v>12.09847544614813</v>
+        <v>8.2228990284858</v>
       </c>
       <c r="D23">
-        <v>116.6544657054161</v>
+        <v>79.28584861681857</v>
       </c>
       <c r="E23">
-        <v>187.4849525619018</v>
+        <v>127.426785394502</v>
       </c>
       <c r="F23">
-        <v>99.06578762502629</v>
+        <v>67.33145613626561</v>
       </c>
       <c r="G23">
-        <v>144.7257362659297</v>
+        <v>98.36488253707164</v>
       </c>
       <c r="H23">
-        <v>14.39869952286755</v>
+        <v>9.78627867990938</v>
       </c>
       <c r="I23">
-        <v>832.703355406333</v>
+        <v>565.9585492953663</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>371.6050509325595</v>
+        <v>252.5666003038932</v>
       </c>
       <c r="C24">
-        <v>18.14771316922219</v>
+        <v>12.3343485427287</v>
       </c>
       <c r="D24">
-        <v>123.2575486698737</v>
+        <v>83.77372684041207</v>
       </c>
       <c r="E24">
-        <v>203.1086986087271</v>
+        <v>138.0456841773772</v>
       </c>
       <c r="F24">
-        <v>104.5694424930833</v>
+        <v>71.07209258828038</v>
       </c>
       <c r="G24">
-        <v>183.9733935583852</v>
+        <v>125.0401049200063</v>
       </c>
       <c r="H24">
-        <v>21.59804928430133</v>
+        <v>14.67941801986407</v>
       </c>
       <c r="I24">
-        <v>1026.259896716153</v>
+        <v>697.511975392562</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>403.9502549731555</v>
+        <v>274.5504732361039</v>
       </c>
       <c r="C25">
-        <v>30.91832614015632</v>
+        <v>21.01407529501927</v>
       </c>
       <c r="D25">
-        <v>154.0719358373421</v>
+        <v>104.7171585505151</v>
       </c>
       <c r="E25">
-        <v>95.97444000192596</v>
+        <v>65.23037823766172</v>
       </c>
       <c r="F25">
-        <v>106.403994115769</v>
+        <v>72.31897140561863</v>
       </c>
       <c r="G25">
-        <v>125.1019076197019</v>
+        <v>85.02727134560426</v>
       </c>
       <c r="H25">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I25">
-        <v>926.0199917032959</v>
+        <v>629.3825138571291</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>378.6577645955468</v>
+        <v>257.3600763567812</v>
       </c>
       <c r="C26">
-        <v>32.93473871451435</v>
+        <v>22.38455846643357</v>
       </c>
       <c r="D26">
-        <v>149.6698805277038</v>
+        <v>101.7252397347861</v>
       </c>
       <c r="E26">
-        <v>78.11873023412576</v>
+        <v>53.09449391437582</v>
       </c>
       <c r="F26">
-        <v>112.5191661913879</v>
+        <v>76.47523413007949</v>
       </c>
       <c r="G26">
-        <v>137.3668005235943</v>
+        <v>93.36327834027138</v>
       </c>
       <c r="H26">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I26">
-        <v>898.8662138021178</v>
+        <v>610.9270667293339</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>356.7700325380005</v>
+        <v>242.4837713650598</v>
       </c>
       <c r="C27">
-        <v>42.34466406151844</v>
+        <v>28.7801465997003</v>
       </c>
       <c r="D27">
-        <v>182.6852953499914</v>
+        <v>124.1646308527536</v>
       </c>
       <c r="E27">
-        <v>31.2474920936503</v>
+        <v>21.23779756575033</v>
       </c>
       <c r="F27">
-        <v>123.5264759275019</v>
+        <v>83.95650703410898</v>
       </c>
       <c r="G27">
-        <v>120.195950458145</v>
+        <v>81.69286854773743</v>
       </c>
       <c r="H27">
-        <v>25.19772416501821</v>
+        <v>17.12598768984141</v>
       </c>
       <c r="I27">
-        <v>881.9676345938259</v>
+        <v>599.4417096549519</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>361.6339729952333</v>
+        <v>245.7896169187756</v>
       </c>
       <c r="C28">
-        <v>38.98397643758842</v>
+        <v>26.49600798067647</v>
       </c>
       <c r="D28">
-        <v>143.0667975632463</v>
+        <v>97.23736151119255</v>
       </c>
       <c r="E28">
-        <v>31.2474920936503</v>
+        <v>21.23779756575033</v>
       </c>
       <c r="F28">
-        <v>110.6846145687022</v>
+        <v>75.22835531274123</v>
       </c>
       <c r="G28">
-        <v>127.5548862004804</v>
+        <v>86.69447274453771</v>
       </c>
       <c r="H28">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I28">
-        <v>828.7703310086741</v>
+        <v>563.285413936909</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>377.4417794812387</v>
+        <v>256.5336149683523</v>
       </c>
       <c r="C29">
-        <v>41.67252653673244</v>
+        <v>28.32331887589553</v>
       </c>
       <c r="D29">
-        <v>121.0565210150545</v>
+        <v>82.27776743254756</v>
       </c>
       <c r="E29">
-        <v>33.47945581462533</v>
+        <v>22.75478310616106</v>
       </c>
       <c r="F29">
-        <v>110.6846145687022</v>
+        <v>75.22835531274123</v>
       </c>
       <c r="G29">
-        <v>103.0251003926957</v>
+        <v>70.02245875520353</v>
       </c>
       <c r="H29">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I29">
-        <v>796.9591308242939</v>
+        <v>541.6644842375074</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>391.7904038300745</v>
+        <v>266.2858593518142</v>
       </c>
       <c r="C30">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D30">
-        <v>101.247272121682</v>
+        <v>68.81413276176704</v>
       </c>
       <c r="E30">
-        <v>37.94338325657537</v>
+        <v>25.78875418698255</v>
       </c>
       <c r="F30">
-        <v>137.5913717014254</v>
+        <v>93.51591130036891</v>
       </c>
       <c r="G30">
-        <v>115.2899932965881</v>
+        <v>78.3584657498706</v>
       </c>
       <c r="H30">
-        <v>14.39869952286755</v>
+        <v>9.78627867990938</v>
       </c>
       <c r="I30">
-        <v>834.5565500676573</v>
+        <v>567.21809911617</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>352.1492891036298</v>
+        <v>239.3432180890296</v>
       </c>
       <c r="C31">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D31">
-        <v>134.2626869439696</v>
+        <v>91.25352387973456</v>
       </c>
       <c r="E31">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F31">
-        <v>107.6270285308927</v>
+        <v>73.15022395051079</v>
       </c>
       <c r="G31">
-        <v>80.94829316568951</v>
+        <v>55.01764616480276</v>
       </c>
       <c r="H31">
-        <v>7.199349761433776</v>
+        <v>4.89313933995469</v>
       </c>
       <c r="I31">
-        <v>758.6574208216101</v>
+        <v>515.6321882368832</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>392.2767978757977</v>
+        <v>266.6164439071856</v>
       </c>
       <c r="C32">
-        <v>32.26260118972834</v>
+        <v>21.9277307426288</v>
       </c>
       <c r="D32">
-        <v>202.494544243364</v>
+        <v>137.6282655235341</v>
       </c>
       <c r="E32">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F32">
-        <v>123.5264759275019</v>
+        <v>83.95650703410898</v>
       </c>
       <c r="G32">
-        <v>76.04233600413254</v>
+        <v>51.68324336693593</v>
       </c>
       <c r="H32">
-        <v>16.79848277667881</v>
+        <v>11.41732512656094</v>
       </c>
       <c r="I32">
-        <v>883.5765849947536</v>
+        <v>600.5352554283477</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>394.2223740586905</v>
+        <v>267.9387821286721</v>
       </c>
       <c r="C33">
-        <v>33.60687623930036</v>
+        <v>22.84138619023833</v>
       </c>
       <c r="D33">
-        <v>171.6801570758955</v>
+        <v>116.6848338134311</v>
       </c>
       <c r="E33">
-        <v>58.03105674535056</v>
+        <v>39.44162405067918</v>
       </c>
       <c r="F33">
-        <v>114.3537178140735</v>
+        <v>77.7221129474177</v>
       </c>
       <c r="G33">
-        <v>95.66616465036034</v>
+        <v>65.02085455840327</v>
       </c>
       <c r="H33">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I33">
-        <v>883.1589377334441</v>
+        <v>600.2513955920768</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>470.5862392372401</v>
+        <v>319.8405573220114</v>
       </c>
       <c r="C34">
-        <v>28.9019135657983</v>
+        <v>19.64359212360497</v>
       </c>
       <c r="D34">
-        <v>149.6698805277038</v>
+        <v>101.7252397347861</v>
       </c>
       <c r="E34">
-        <v>118.2940772116762</v>
+        <v>80.40023364176911</v>
       </c>
       <c r="F34">
-        <v>95.39668437965496</v>
+        <v>64.83769850158912</v>
       </c>
       <c r="G34">
-        <v>53.96552877712634</v>
+        <v>36.67843077653517</v>
       </c>
       <c r="H34">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I34">
-        <v>928.8132399682559</v>
+        <v>631.2809843335536</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>491.257986180478</v>
+        <v>333.8904009253038</v>
       </c>
       <c r="C35">
-        <v>22.18053831793823</v>
+        <v>15.0753148855573</v>
       </c>
       <c r="D35">
-        <v>123.2575486698737</v>
+        <v>83.77372684041207</v>
       </c>
       <c r="E35">
-        <v>131.6858595375263</v>
+        <v>89.50214688423353</v>
       </c>
       <c r="F35">
-        <v>73.99358211498878</v>
+        <v>50.29077896597617</v>
       </c>
       <c r="G35">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H35">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I35">
-        <v>886.3163479669485</v>
+        <v>602.3973738731569</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>369.6594747496667</v>
+        <v>251.244262082407</v>
       </c>
       <c r="C36">
-        <v>18.14771316922219</v>
+        <v>12.3343485427287</v>
       </c>
       <c r="D36">
-        <v>125.4585763246929</v>
+        <v>85.26968624827657</v>
       </c>
       <c r="E36">
-        <v>138.3817507004514</v>
+        <v>94.05310350546573</v>
       </c>
       <c r="F36">
-        <v>45.86379056714181</v>
+        <v>31.17197043345631</v>
       </c>
       <c r="G36">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H36">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I36">
-        <v>735.3994851958232</v>
+        <v>499.8246051150977</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>343.1509992577496</v>
+        <v>233.2274038146553</v>
       </c>
       <c r="C37">
-        <v>16.80343811965018</v>
+        <v>11.42069309511916</v>
       </c>
       <c r="D37">
-        <v>72.63391260903272</v>
+        <v>49.36666045952855</v>
       </c>
       <c r="E37">
-        <v>136.1497869794763</v>
+        <v>92.53611796505501</v>
       </c>
       <c r="F37">
-        <v>39.7486184915229</v>
+        <v>27.01570770899546</v>
       </c>
       <c r="G37">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="H37">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I37">
-        <v>652.587174584477</v>
+        <v>443.5400532718731</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>272.8670596507407</v>
+        <v>185.4579355634608</v>
       </c>
       <c r="C38">
-        <v>10.08206287179011</v>
+        <v>6.852415857071499</v>
       </c>
       <c r="D38">
-        <v>59.42774668011769</v>
+        <v>40.39090401234154</v>
       </c>
       <c r="E38">
-        <v>93.74247628095091</v>
+        <v>63.713392697251</v>
       </c>
       <c r="F38">
-        <v>25.68372271759941</v>
+        <v>17.45630344273553</v>
       </c>
       <c r="G38">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="H38">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I38">
-        <v>505.9034873282441</v>
+        <v>343.84442180138</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>195.2872093578831</v>
+        <v>132.7296989816926</v>
       </c>
       <c r="C39">
-        <v>14.11488802050615</v>
+        <v>9.593382199900098</v>
       </c>
       <c r="D39">
-        <v>28.61335951264925</v>
+        <v>19.44747230223851</v>
       </c>
       <c r="E39">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F39">
-        <v>18.34551622685672</v>
+        <v>12.46878817338252</v>
       </c>
       <c r="G39">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="H39">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I39">
-        <v>324.6657807839472</v>
+        <v>220.6636650439186</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>115.0321918135476</v>
+        <v>78.18324734538054</v>
       </c>
       <c r="C40">
-        <v>16.13130059486417</v>
+        <v>10.9638653713144</v>
       </c>
       <c r="D40">
-        <v>30.81438716746842</v>
+        <v>20.94343171010302</v>
       </c>
       <c r="E40">
-        <v>17.85570976780017</v>
+        <v>12.1358843232859</v>
       </c>
       <c r="F40">
-        <v>14.67641298148538</v>
+        <v>9.975030538706019</v>
       </c>
       <c r="G40">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="I40">
-        <v>228.8517024560643</v>
+        <v>155.5422788738577</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>88.76691334449232</v>
+        <v>60.33168135531484</v>
       </c>
       <c r="C41">
-        <v>16.80343811965018</v>
+        <v>11.42069309511916</v>
       </c>
       <c r="D41">
-        <v>11.00513827409587</v>
+        <v>7.479797039322507</v>
       </c>
       <c r="E41">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F41">
-        <v>11.61882694367592</v>
+        <v>7.896899176475598</v>
       </c>
       <c r="G41">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="I41">
-        <v>178.8228074390483</v>
+        <v>121.5394366097431</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>57.6376944182046</v>
+        <v>39.17426981153318</v>
       </c>
       <c r="C42">
-        <v>18.8198506940082</v>
+        <v>12.79117626653347</v>
       </c>
       <c r="D42">
-        <v>17.60822123855338</v>
+        <v>11.96767526291601</v>
       </c>
       <c r="E42">
-        <v>11.15981860487511</v>
+        <v>7.584927702053691</v>
       </c>
       <c r="F42">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G42">
-        <v>36.79467871167707</v>
+        <v>25.00802098400126</v>
       </c>
       <c r="I42">
-        <v>154.2506078185561</v>
+        <v>104.8385954759593</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>40.37070579502935</v>
+        <v>27.43851809584181</v>
       </c>
       <c r="C43">
-        <v>20.83626326836622</v>
+        <v>14.16165943794777</v>
       </c>
       <c r="D43">
-        <v>33.0154148222876</v>
+        <v>22.43939111796752</v>
       </c>
       <c r="E43">
-        <v>4.463927441950044</v>
+        <v>3.033971080821475</v>
       </c>
       <c r="F43">
-        <v>9.78427532099025</v>
+        <v>6.650020359137345</v>
       </c>
       <c r="G43">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="H43">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I43">
-        <v>134.2002640833138</v>
+        <v>91.21109730437587</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>44.7482522065386</v>
+        <v>30.4137790941861</v>
       </c>
       <c r="C44">
-        <v>20.83626326836622</v>
+        <v>14.16165943794777</v>
       </c>
       <c r="D44">
-        <v>22.01027654819174</v>
+        <v>14.95959407864501</v>
       </c>
       <c r="E44">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F44">
-        <v>13.45337856636159</v>
+        <v>9.143777993813849</v>
       </c>
       <c r="G44">
-        <v>14.71787148467082</v>
+        <v>10.00320839360051</v>
       </c>
       <c r="I44">
-        <v>124.6938969580291</v>
+        <v>84.74996115983616</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>60.31286166968244</v>
+        <v>40.99248486607694</v>
       </c>
       <c r="C45">
-        <v>6.721375247860069</v>
+        <v>4.568277238047667</v>
       </c>
       <c r="D45">
-        <v>41.81952544156431</v>
+        <v>28.42322874942553</v>
       </c>
       <c r="E45">
-        <v>13.39178232585014</v>
+        <v>9.10191324246443</v>
       </c>
       <c r="F45">
-        <v>22.62613667978996</v>
+        <v>15.37817208050511</v>
       </c>
       <c r="G45">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H45">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I45">
-        <v>181.5599694224896</v>
+        <v>123.3997872559572</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>140.0814851682947</v>
+        <v>95.20835194701738</v>
       </c>
       <c r="C46">
-        <v>5.377100198288056</v>
+        <v>3.654621790438133</v>
       </c>
       <c r="D46">
-        <v>66.03082964457519</v>
+        <v>44.87878223593504</v>
       </c>
       <c r="E46">
-        <v>66.95891162925065</v>
+        <v>45.50956621232212</v>
       </c>
       <c r="F46">
-        <v>69.71296166205553</v>
+        <v>47.38139505885358</v>
       </c>
       <c r="G46">
-        <v>107.9310575542527</v>
+        <v>73.35686155307035</v>
       </c>
       <c r="H46">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I46">
-        <v>458.4921291105281</v>
+        <v>311.6206252442882</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>266.300740033477</v>
+        <v>180.9950440659444</v>
       </c>
       <c r="C47">
-        <v>11.42633792136212</v>
+        <v>7.766071304681033</v>
       </c>
       <c r="D47">
-        <v>112.2524103957778</v>
+        <v>76.29392980108956</v>
       </c>
       <c r="E47">
-        <v>194.1808437248269</v>
+        <v>131.9777420157342</v>
       </c>
       <c r="F47">
-        <v>102.7348908703976</v>
+        <v>69.82521377094213</v>
       </c>
       <c r="G47">
-        <v>152.0846720082651</v>
+        <v>103.3664867338719</v>
       </c>
       <c r="H47">
-        <v>13.19880789596192</v>
+        <v>8.970755456583596</v>
       </c>
       <c r="I47">
-        <v>852.1787028500685</v>
+        <v>579.1952431488468</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>383.0353110070561</v>
+        <v>260.3353373551255</v>
       </c>
       <c r="C48">
-        <v>17.47557564443618</v>
+        <v>11.87752081892394</v>
       </c>
       <c r="D48">
-        <v>118.8554933602354</v>
+        <v>80.78180802468307</v>
       </c>
       <c r="E48">
-        <v>212.0365534926271</v>
+        <v>144.1136263390201</v>
       </c>
       <c r="F48">
-        <v>108.2385457384547</v>
+        <v>73.56585022295687</v>
       </c>
       <c r="G48">
-        <v>193.7853078814992</v>
+        <v>131.7089105157399</v>
       </c>
       <c r="H48">
-        <v>20.3981576573957</v>
+        <v>13.86389479653829</v>
       </c>
       <c r="I48">
-        <v>1053.824944781704</v>
+        <v>716.2469480729877</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>416.5965001619599</v>
+        <v>283.145671675765</v>
       </c>
       <c r="C49">
-        <v>30.24618861537032</v>
+        <v>20.5572475712145</v>
       </c>
       <c r="D49">
-        <v>149.6698805277038</v>
+        <v>101.7252397347861</v>
       </c>
       <c r="E49">
-        <v>100.438367443876</v>
+        <v>68.26434931848318</v>
       </c>
       <c r="F49">
-        <v>110.6846145687022</v>
+        <v>75.22835531274123</v>
       </c>
       <c r="G49">
-        <v>132.4608433620374</v>
+        <v>90.02887554240453</v>
       </c>
       <c r="H49">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I49">
-        <v>948.4956360679892</v>
+        <v>644.658401718675</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>249.5913393055491</v>
+        <v>367.2275045210505</v>
       </c>
       <c r="C2">
-        <v>23.2982139140431</v>
+        <v>34.27901376408636</v>
       </c>
       <c r="D2">
-        <v>104.7171585505151</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E2">
-        <v>51.57750837396511</v>
+        <v>75.88676651315073</v>
       </c>
       <c r="F2">
-        <v>73.56585022295687</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G2">
-        <v>88.36167414347112</v>
+        <v>130.0078647812588</v>
       </c>
       <c r="H2">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I2">
-        <v>598.4514535204323</v>
+        <v>880.5106557974939</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>235.2109111468849</v>
+        <v>346.0693635320891</v>
       </c>
       <c r="C3">
-        <v>29.69380204730983</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D3">
-        <v>128.6525090763471</v>
+        <v>189.2883783144489</v>
       </c>
       <c r="E3">
-        <v>19.72081202533959</v>
+        <v>29.01552837267528</v>
       </c>
       <c r="F3">
-        <v>81.04712312698639</v>
+        <v>119.2458554745687</v>
       </c>
       <c r="G3">
-        <v>78.3584657498706</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H3">
-        <v>18.75703413649298</v>
+        <v>27.59750741882947</v>
       </c>
       <c r="I3">
-        <v>591.4406573092314</v>
+        <v>870.19556552029</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>219.8387293221061</v>
+        <v>323.4520404059584</v>
       </c>
       <c r="C4">
-        <v>23.2982139140431</v>
+        <v>34.27901376408636</v>
       </c>
       <c r="D4">
-        <v>64.32625453817356</v>
+        <v>94.64418915722445</v>
       </c>
       <c r="E4">
-        <v>18.20382648492886</v>
+        <v>26.78356465170027</v>
       </c>
       <c r="F4">
-        <v>64.42207222914303</v>
+        <v>94.78516717209305</v>
       </c>
       <c r="G4">
-        <v>75.02406295200377</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H4">
-        <v>16.31046446651563</v>
+        <v>23.99783253811258</v>
       </c>
       <c r="I4">
-        <v>481.423623906914</v>
+        <v>708.3258438242062</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>255.0459844691802</v>
+        <v>375.2530062754841</v>
       </c>
       <c r="C5">
-        <v>25.12552480926216</v>
+        <v>36.96756386323039</v>
       </c>
       <c r="D5">
-        <v>86.76564565614106</v>
+        <v>127.6596039795121</v>
       </c>
       <c r="E5">
-        <v>31.8566963486255</v>
+        <v>46.87123814047546</v>
       </c>
       <c r="F5">
-        <v>77.7221129474177</v>
+        <v>114.3537178140735</v>
       </c>
       <c r="G5">
-        <v>61.68645176053642</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H5">
-        <v>13.86389479653829</v>
+        <v>20.3981576573957</v>
       </c>
       <c r="I5">
-        <v>552.0663107877014</v>
+        <v>812.2634952189748</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>237.1944184791145</v>
+        <v>348.9877278064289</v>
       </c>
       <c r="C6">
-        <v>26.03918025687171</v>
+        <v>38.31183891280241</v>
       </c>
       <c r="D6">
-        <v>106.2131179583796</v>
+        <v>156.2729634921613</v>
       </c>
       <c r="E6">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F6">
-        <v>83.1252544892168</v>
+        <v>122.3034415123782</v>
       </c>
       <c r="G6">
-        <v>63.35365315946986</v>
+        <v>93.21318606958185</v>
       </c>
       <c r="H6">
-        <v>12.23284834988672</v>
+        <v>17.99837440358444</v>
       </c>
       <c r="I6">
-        <v>555.4642124203325</v>
+        <v>817.2628791744875</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>254.384815358437</v>
+        <v>374.2802181840375</v>
       </c>
       <c r="C7">
-        <v>26.95283570448124</v>
+        <v>39.65611396237441</v>
       </c>
       <c r="D7">
-        <v>122.6686714448891</v>
+        <v>180.4842676951722</v>
       </c>
       <c r="E7">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F7">
-        <v>87.28151721367766</v>
+        <v>128.418613587997</v>
       </c>
       <c r="G7">
-        <v>60.01925036160301</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H7">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I7">
-        <v>589.2146317137165</v>
+        <v>866.9203804649296</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>260.004752799754</v>
+        <v>382.5489169613326</v>
       </c>
       <c r="C8">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D8">
-        <v>119.6767526291601</v>
+        <v>176.0822123855339</v>
       </c>
       <c r="E8">
-        <v>30.33971080821476</v>
+        <v>44.63927441950045</v>
       </c>
       <c r="F8">
-        <v>81.46274939943248</v>
+        <v>119.8573726821306</v>
       </c>
       <c r="G8">
-        <v>51.68324336693593</v>
+        <v>76.04233600413254</v>
       </c>
       <c r="H8">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I8">
-        <v>573.5445686522351</v>
+        <v>843.8647801794137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>290.7491164493118</v>
+        <v>427.7835632135944</v>
       </c>
       <c r="C9">
-        <v>22.84138619023833</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D9">
-        <v>104.7171585505151</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E9">
-        <v>48.54353729314361</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F9">
-        <v>72.31897140561863</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G9">
-        <v>55.01764616480276</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H9">
-        <v>8.970755456583596</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I9">
-        <v>603.1585715102137</v>
+        <v>887.436309538858</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>315.7082503798666</v>
+        <v>464.5063136656996</v>
       </c>
       <c r="C10">
-        <v>27.86649115209076</v>
+        <v>41.00038901194642</v>
       </c>
       <c r="D10">
-        <v>95.74140210332808</v>
+        <v>140.865769908427</v>
       </c>
       <c r="E10">
-        <v>91.01913242464424</v>
+        <v>133.9178232585013</v>
       </c>
       <c r="F10">
-        <v>69.40958749849604</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G10">
-        <v>41.68003497333544</v>
+        <v>61.32446451946176</v>
       </c>
       <c r="H10">
-        <v>4.89313933995469</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I10">
-        <v>646.3180378717159</v>
+        <v>950.9374837883056</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>335.5433237021618</v>
+        <v>493.6899564090941</v>
       </c>
       <c r="C11">
-        <v>17.35945350458113</v>
+        <v>25.54122594186827</v>
       </c>
       <c r="D11">
-        <v>82.27776743254756</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E11">
-        <v>97.08707458628722</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F11">
-        <v>38.65324333748582</v>
+        <v>56.87110030325584</v>
       </c>
       <c r="G11">
-        <v>8.336006994667088</v>
+        <v>12.26489290389235</v>
       </c>
       <c r="H11">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I11">
-        <v>584.9655321210112</v>
+        <v>860.6686161039058</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>244.4672786972895</v>
+        <v>359.6883968123401</v>
       </c>
       <c r="C12">
-        <v>14.61848716175253</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D12">
-        <v>83.77372684041207</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E12">
-        <v>59.16243607601878</v>
+        <v>87.04658511802586</v>
       </c>
       <c r="F12">
-        <v>34.49698061302498</v>
+        <v>50.75592822763692</v>
       </c>
       <c r="G12">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H12">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I12">
-        <v>456.4891712234169</v>
+        <v>671.6394072634032</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>213.2270382146742</v>
+        <v>313.7241594914934</v>
       </c>
       <c r="C13">
-        <v>10.05020992370486</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D13">
-        <v>49.36666045952855</v>
+        <v>72.63391260903272</v>
       </c>
       <c r="E13">
-        <v>78.88324810135836</v>
+        <v>116.0621134907011</v>
       </c>
       <c r="F13">
-        <v>21.61256616719637</v>
+        <v>31.79889479321832</v>
       </c>
       <c r="G13">
-        <v>30.0096251808015</v>
+        <v>44.15361445401247</v>
       </c>
       <c r="H13">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I13">
-        <v>407.2269641638928</v>
+        <v>599.1591785182783</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>168.9287077948815</v>
+        <v>248.5473573645785</v>
       </c>
       <c r="C14">
-        <v>8.679726752290566</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D14">
-        <v>50.86261986739304</v>
+        <v>74.83494026385189</v>
       </c>
       <c r="E14">
-        <v>50.06052283355436</v>
+        <v>73.65480279217573</v>
       </c>
       <c r="F14">
-        <v>14.54691953561294</v>
+        <v>21.40310226466617</v>
       </c>
       <c r="G14">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H14">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I14">
-        <v>320.4969324854292</v>
+        <v>471.5519739216331</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>119.3410244891433</v>
+        <v>175.5882505060916</v>
       </c>
       <c r="C15">
-        <v>12.3343485427287</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D15">
-        <v>32.91110697301902</v>
+        <v>48.4226084060218</v>
       </c>
       <c r="E15">
-        <v>28.82272526780403</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F15">
-        <v>12.46878817338252</v>
+        <v>18.34551622685672</v>
       </c>
       <c r="G15">
-        <v>20.00641678720101</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="I15">
-        <v>225.8844102332785</v>
+        <v>332.3471419760593</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>73.38977129249254</v>
+        <v>107.9794781505605</v>
       </c>
       <c r="C16">
-        <v>10.05020992370486</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D16">
-        <v>22.43939111796752</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E16">
-        <v>15.16985540410738</v>
+        <v>22.31963720975023</v>
       </c>
       <c r="F16">
-        <v>9.559404266259936</v>
+        <v>14.06489577392349</v>
       </c>
       <c r="G16">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I16">
-        <v>148.9478473927998</v>
+        <v>219.1492158903772</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>57.02583580159894</v>
+        <v>83.90297288725991</v>
       </c>
       <c r="C17">
-        <v>14.16165943794777</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D17">
-        <v>7.479797039322507</v>
+        <v>11.00513827409587</v>
       </c>
       <c r="E17">
-        <v>3.033971080821475</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F17">
-        <v>5.403141541799093</v>
+        <v>7.949723698304579</v>
       </c>
       <c r="G17">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="I17">
-        <v>108.7780230876242</v>
+        <v>160.0467471200967</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>37.19076247930367</v>
+        <v>54.71933014386511</v>
       </c>
       <c r="C18">
-        <v>12.79117626653347</v>
+        <v>18.8198506940082</v>
       </c>
       <c r="D18">
-        <v>13.46363467078051</v>
+        <v>19.80924889337256</v>
       </c>
       <c r="E18">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F18">
-        <v>9.975030538706019</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G18">
-        <v>13.33761119146734</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="I18">
-        <v>92.82615730843395</v>
+        <v>136.5765262428591</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>22.1491652098964</v>
+        <v>32.58840106345744</v>
       </c>
       <c r="C19">
-        <v>11.42069309511916</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D19">
-        <v>17.95151289437402</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E19">
-        <v>1.516985540410738</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F19">
-        <v>4.571888996906925</v>
+        <v>6.726689283180797</v>
       </c>
       <c r="G19">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H19">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I19">
-        <v>86.76819274190112</v>
+        <v>127.6633515452331</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>26.77734898509862</v>
+        <v>39.39791770358291</v>
       </c>
       <c r="C20">
-        <v>8.679726752290566</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D20">
-        <v>22.43939111796752</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E20">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F20">
-        <v>9.143777993813849</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G20">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H20">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I20">
-        <v>95.74754427879641</v>
+        <v>140.8748069838955</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>45.95125319665073</v>
+        <v>67.60877235553114</v>
       </c>
       <c r="C21">
-        <v>4.1114495142429</v>
+        <v>6.049237723074063</v>
       </c>
       <c r="D21">
-        <v>31.41514756515452</v>
+        <v>46.22158075120262</v>
       </c>
       <c r="E21">
-        <v>10.61889878287517</v>
+        <v>15.62374604682515</v>
       </c>
       <c r="F21">
-        <v>16.20942462539728</v>
+        <v>23.84917109491374</v>
       </c>
       <c r="G21">
-        <v>38.3456321754686</v>
+        <v>56.41850735790481</v>
       </c>
       <c r="I21">
-        <v>146.6518058597892</v>
+        <v>215.7710153294515</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>92.39838322635886</v>
+        <v>135.9471357796471</v>
       </c>
       <c r="C22">
-        <v>3.654621790438133</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D22">
-        <v>46.37474164379952</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E22">
-        <v>43.9925806719114</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F22">
-        <v>45.71888996906925</v>
+        <v>67.26689283180799</v>
       </c>
       <c r="G22">
-        <v>70.02245875520353</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H22">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I22">
-        <v>303.7927225034323</v>
+        <v>446.9748176639202</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>175.5403989023133</v>
+        <v>258.2752382790434</v>
       </c>
       <c r="C23">
-        <v>8.2228990284858</v>
+        <v>12.09847544614813</v>
       </c>
       <c r="D23">
-        <v>79.28584861681857</v>
+        <v>116.6544657054161</v>
       </c>
       <c r="E23">
-        <v>127.426785394502</v>
+        <v>187.4849525619018</v>
       </c>
       <c r="F23">
-        <v>67.33145613626561</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G23">
-        <v>98.36488253707164</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H23">
-        <v>9.78627867990938</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I23">
-        <v>565.9585492953663</v>
+        <v>832.703355406333</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>252.5666003038932</v>
+        <v>371.6050509325595</v>
       </c>
       <c r="C24">
-        <v>12.3343485427287</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D24">
-        <v>83.77372684041207</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E24">
-        <v>138.0456841773772</v>
+        <v>203.1086986087271</v>
       </c>
       <c r="F24">
-        <v>71.07209258828038</v>
+        <v>104.5694424930833</v>
       </c>
       <c r="G24">
-        <v>125.0401049200063</v>
+        <v>183.9733935583852</v>
       </c>
       <c r="H24">
-        <v>14.67941801986407</v>
+        <v>21.59804928430133</v>
       </c>
       <c r="I24">
-        <v>697.511975392562</v>
+        <v>1026.259896716153</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>274.5504732361039</v>
+        <v>403.9502549731555</v>
       </c>
       <c r="C25">
-        <v>21.01407529501927</v>
+        <v>30.91832614015632</v>
       </c>
       <c r="D25">
-        <v>104.7171585505151</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E25">
-        <v>65.23037823766172</v>
+        <v>95.97444000192596</v>
       </c>
       <c r="F25">
-        <v>72.31897140561863</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G25">
-        <v>85.02727134560426</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H25">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I25">
-        <v>629.3825138571291</v>
+        <v>926.0199917032959</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>257.3600763567812</v>
+        <v>378.6577645955468</v>
       </c>
       <c r="C26">
-        <v>22.38455846643357</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D26">
-        <v>101.7252397347861</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E26">
-        <v>53.09449391437582</v>
+        <v>78.11873023412576</v>
       </c>
       <c r="F26">
-        <v>76.47523413007949</v>
+        <v>112.5191661913879</v>
       </c>
       <c r="G26">
-        <v>93.36327834027138</v>
+        <v>137.3668005235943</v>
       </c>
       <c r="H26">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I26">
-        <v>610.9270667293339</v>
+        <v>898.8662138021178</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>242.4837713650598</v>
+        <v>356.7700325380005</v>
       </c>
       <c r="C27">
-        <v>28.7801465997003</v>
+        <v>42.34466406151844</v>
       </c>
       <c r="D27">
-        <v>124.1646308527536</v>
+        <v>182.6852953499914</v>
       </c>
       <c r="E27">
-        <v>21.23779756575033</v>
+        <v>31.2474920936503</v>
       </c>
       <c r="F27">
-        <v>83.95650703410898</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G27">
-        <v>81.69286854773743</v>
+        <v>120.195950458145</v>
       </c>
       <c r="H27">
-        <v>17.12598768984141</v>
+        <v>25.19772416501821</v>
       </c>
       <c r="I27">
-        <v>599.4417096549519</v>
+        <v>881.9676345938259</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>245.7896169187756</v>
+        <v>361.6339729952333</v>
       </c>
       <c r="C28">
-        <v>26.49600798067647</v>
+        <v>38.98397643758842</v>
       </c>
       <c r="D28">
-        <v>97.23736151119255</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E28">
-        <v>21.23779756575033</v>
+        <v>31.2474920936503</v>
       </c>
       <c r="F28">
-        <v>75.22835531274123</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G28">
-        <v>86.69447274453771</v>
+        <v>127.5548862004804</v>
       </c>
       <c r="H28">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I28">
-        <v>563.285413936909</v>
+        <v>828.7703310086741</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>256.5336149683523</v>
+        <v>377.4417794812387</v>
       </c>
       <c r="C29">
-        <v>28.32331887589553</v>
+        <v>41.67252653673244</v>
       </c>
       <c r="D29">
-        <v>82.27776743254756</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E29">
-        <v>22.75478310616106</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F29">
-        <v>75.22835531274123</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G29">
-        <v>70.02245875520353</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H29">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I29">
-        <v>541.6644842375074</v>
+        <v>796.9591308242939</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>266.2858593518142</v>
+        <v>391.7904038300745</v>
       </c>
       <c r="C30">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D30">
-        <v>68.81413276176704</v>
+        <v>101.247272121682</v>
       </c>
       <c r="E30">
-        <v>25.78875418698255</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F30">
-        <v>93.51591130036891</v>
+        <v>137.5913717014254</v>
       </c>
       <c r="G30">
-        <v>78.3584657498706</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H30">
-        <v>9.78627867990938</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I30">
-        <v>567.21809911617</v>
+        <v>834.5565500676573</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>239.3432180890296</v>
+        <v>352.1492891036298</v>
       </c>
       <c r="C31">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D31">
-        <v>91.25352387973456</v>
+        <v>134.2626869439696</v>
       </c>
       <c r="E31">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F31">
-        <v>73.15022395051079</v>
+        <v>107.6270285308927</v>
       </c>
       <c r="G31">
-        <v>55.01764616480276</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H31">
-        <v>4.89313933995469</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I31">
-        <v>515.6321882368832</v>
+        <v>758.6574208216101</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>266.6164439071856</v>
+        <v>392.2767978757977</v>
       </c>
       <c r="C32">
-        <v>21.9277307426288</v>
+        <v>32.26260118972834</v>
       </c>
       <c r="D32">
-        <v>137.6282655235341</v>
+        <v>202.494544243364</v>
       </c>
       <c r="E32">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F32">
-        <v>83.95650703410898</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G32">
-        <v>51.68324336693593</v>
+        <v>76.04233600413254</v>
       </c>
       <c r="H32">
-        <v>11.41732512656094</v>
+        <v>16.79848277667881</v>
       </c>
       <c r="I32">
-        <v>600.5352554283477</v>
+        <v>883.5765849947536</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>267.9387821286721</v>
+        <v>394.2223740586905</v>
       </c>
       <c r="C33">
-        <v>22.84138619023833</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D33">
-        <v>116.6848338134311</v>
+        <v>171.6801570758955</v>
       </c>
       <c r="E33">
-        <v>39.44162405067918</v>
+        <v>58.03105674535056</v>
       </c>
       <c r="F33">
-        <v>77.7221129474177</v>
+        <v>114.3537178140735</v>
       </c>
       <c r="G33">
-        <v>65.02085455840327</v>
+        <v>95.66616465036034</v>
       </c>
       <c r="H33">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I33">
-        <v>600.2513955920768</v>
+        <v>883.1589377334441</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>319.8405573220114</v>
+        <v>470.5862392372401</v>
       </c>
       <c r="C34">
-        <v>19.64359212360497</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D34">
-        <v>101.7252397347861</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E34">
-        <v>80.40023364176911</v>
+        <v>118.2940772116762</v>
       </c>
       <c r="F34">
-        <v>64.83769850158912</v>
+        <v>95.39668437965496</v>
       </c>
       <c r="G34">
-        <v>36.67843077653517</v>
+        <v>53.96552877712634</v>
       </c>
       <c r="H34">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I34">
-        <v>631.2809843335536</v>
+        <v>928.8132399682559</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>333.8904009253038</v>
+        <v>491.257986180478</v>
       </c>
       <c r="C35">
-        <v>15.0753148855573</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D35">
-        <v>83.77372684041207</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E35">
-        <v>89.50214688423353</v>
+        <v>131.6858595375263</v>
       </c>
       <c r="F35">
-        <v>50.29077896597617</v>
+        <v>73.99358211498878</v>
       </c>
       <c r="G35">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H35">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I35">
-        <v>602.3973738731569</v>
+        <v>886.3163479669485</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>251.244262082407</v>
+        <v>369.6594747496667</v>
       </c>
       <c r="C36">
-        <v>12.3343485427287</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D36">
-        <v>85.26968624827657</v>
+        <v>125.4585763246929</v>
       </c>
       <c r="E36">
-        <v>94.05310350546573</v>
+        <v>138.3817507004514</v>
       </c>
       <c r="F36">
-        <v>31.17197043345631</v>
+        <v>45.86379056714181</v>
       </c>
       <c r="G36">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H36">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I36">
-        <v>499.8246051150977</v>
+        <v>735.3994851958232</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>233.2274038146553</v>
+        <v>343.1509992577496</v>
       </c>
       <c r="C37">
-        <v>11.42069309511916</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D37">
-        <v>49.36666045952855</v>
+        <v>72.63391260903272</v>
       </c>
       <c r="E37">
-        <v>92.53611796505501</v>
+        <v>136.1497869794763</v>
       </c>
       <c r="F37">
-        <v>27.01570770899546</v>
+        <v>39.7486184915229</v>
       </c>
       <c r="G37">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H37">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I37">
-        <v>443.5400532718731</v>
+        <v>652.587174584477</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>185.4579355634608</v>
+        <v>272.8670596507407</v>
       </c>
       <c r="C38">
-        <v>6.852415857071499</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D38">
-        <v>40.39090401234154</v>
+        <v>59.42774668011769</v>
       </c>
       <c r="E38">
-        <v>63.713392697251</v>
+        <v>93.74247628095091</v>
       </c>
       <c r="F38">
-        <v>17.45630344273553</v>
+        <v>25.68372271759941</v>
       </c>
       <c r="G38">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H38">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>343.84442180138</v>
+        <v>505.9034873282441</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>132.7296989816926</v>
+        <v>195.2872093578831</v>
       </c>
       <c r="C39">
-        <v>9.593382199900098</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D39">
-        <v>19.44747230223851</v>
+        <v>28.61335951264925</v>
       </c>
       <c r="E39">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F39">
-        <v>12.46878817338252</v>
+        <v>18.34551622685672</v>
       </c>
       <c r="G39">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H39">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I39">
-        <v>220.6636650439186</v>
+        <v>324.6657807839472</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>78.18324734538054</v>
+        <v>115.0321918135476</v>
       </c>
       <c r="C40">
-        <v>10.9638653713144</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D40">
-        <v>20.94343171010302</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E40">
-        <v>12.1358843232859</v>
+        <v>17.85570976780017</v>
       </c>
       <c r="F40">
-        <v>9.975030538706019</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G40">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="I40">
-        <v>155.5422788738577</v>
+        <v>228.8517024560643</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>60.33168135531484</v>
+        <v>88.76691334449232</v>
       </c>
       <c r="C41">
-        <v>11.42069309511916</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D41">
-        <v>7.479797039322507</v>
+        <v>11.00513827409587</v>
       </c>
       <c r="E41">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F41">
-        <v>7.896899176475598</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G41">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="I41">
-        <v>121.5394366097431</v>
+        <v>178.8228074390483</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>39.17426981153318</v>
+        <v>57.6376944182046</v>
       </c>
       <c r="C42">
-        <v>12.79117626653347</v>
+        <v>18.8198506940082</v>
       </c>
       <c r="D42">
-        <v>11.96767526291601</v>
+        <v>17.60822123855338</v>
       </c>
       <c r="E42">
-        <v>7.584927702053691</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F42">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G42">
-        <v>25.00802098400126</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="I42">
-        <v>104.8385954759593</v>
+        <v>154.2506078185561</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>27.43851809584181</v>
+        <v>40.37070579502935</v>
       </c>
       <c r="C43">
-        <v>14.16165943794777</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D43">
-        <v>22.43939111796752</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E43">
-        <v>3.033971080821475</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F43">
-        <v>6.650020359137345</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G43">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H43">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I43">
-        <v>91.21109730437587</v>
+        <v>134.2002640833138</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>30.4137790941861</v>
+        <v>44.7482522065386</v>
       </c>
       <c r="C44">
-        <v>14.16165943794777</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D44">
-        <v>14.95959407864501</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E44">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F44">
-        <v>9.143777993813849</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G44">
-        <v>10.00320839360051</v>
+        <v>14.71787148467082</v>
       </c>
       <c r="I44">
-        <v>84.74996115983616</v>
+        <v>124.6938969580291</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>40.99248486607694</v>
+        <v>60.31286166968244</v>
       </c>
       <c r="C45">
-        <v>4.568277238047667</v>
+        <v>6.721375247860069</v>
       </c>
       <c r="D45">
-        <v>28.42322874942553</v>
+        <v>41.81952544156431</v>
       </c>
       <c r="E45">
-        <v>9.10191324246443</v>
+        <v>13.39178232585014</v>
       </c>
       <c r="F45">
-        <v>15.37817208050511</v>
+        <v>22.62613667978996</v>
       </c>
       <c r="G45">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H45">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I45">
-        <v>123.3997872559572</v>
+        <v>181.5599694224896</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>95.20835194701738</v>
+        <v>140.0814851682947</v>
       </c>
       <c r="C46">
-        <v>3.654621790438133</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D46">
-        <v>44.87878223593504</v>
+        <v>66.03082964457519</v>
       </c>
       <c r="E46">
-        <v>45.50956621232212</v>
+        <v>66.95891162925065</v>
       </c>
       <c r="F46">
-        <v>47.38139505885358</v>
+        <v>69.71296166205553</v>
       </c>
       <c r="G46">
-        <v>73.35686155307035</v>
+        <v>107.9310575542527</v>
       </c>
       <c r="H46">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I46">
-        <v>311.6206252442882</v>
+        <v>458.4921291105281</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>180.9950440659444</v>
+        <v>266.300740033477</v>
       </c>
       <c r="C47">
-        <v>7.766071304681033</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D47">
-        <v>76.29392980108956</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E47">
-        <v>131.9777420157342</v>
+        <v>194.1808437248269</v>
       </c>
       <c r="F47">
-        <v>69.82521377094213</v>
+        <v>102.7348908703976</v>
       </c>
       <c r="G47">
-        <v>103.3664867338719</v>
+        <v>152.0846720082651</v>
       </c>
       <c r="H47">
-        <v>8.970755456583596</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I47">
-        <v>579.1952431488468</v>
+        <v>852.1787028500685</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>260.3353373551255</v>
+        <v>383.0353110070561</v>
       </c>
       <c r="C48">
-        <v>11.87752081892394</v>
+        <v>17.47557564443618</v>
       </c>
       <c r="D48">
-        <v>80.78180802468307</v>
+        <v>118.8554933602354</v>
       </c>
       <c r="E48">
-        <v>144.1136263390201</v>
+        <v>212.0365534926271</v>
       </c>
       <c r="F48">
-        <v>73.56585022295687</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G48">
-        <v>131.7089105157399</v>
+        <v>193.7853078814992</v>
       </c>
       <c r="H48">
-        <v>13.86389479653829</v>
+        <v>20.3981576573957</v>
       </c>
       <c r="I48">
-        <v>716.2469480729877</v>
+        <v>1053.824944781704</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>283.145671675765</v>
+        <v>416.5965001619599</v>
       </c>
       <c r="C49">
-        <v>20.5572475712145</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D49">
-        <v>101.7252397347861</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E49">
-        <v>68.26434931848318</v>
+        <v>100.438367443876</v>
       </c>
       <c r="F49">
-        <v>75.22835531274123</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G49">
-        <v>90.02887554240453</v>
+        <v>132.4608433620374</v>
       </c>
       <c r="H49">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I49">
-        <v>644.658401718675</v>
+        <v>948.4956360679892</v>
       </c>
     </row>
   </sheetData>
